--- a/test_case/integration-test-case.xlsx
+++ b/test_case/integration-test-case.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26404"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\plus_pm_jp\wp-content\uploads\blog\test-case-excel-integration-test\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7CB549B8-A4F1-4A6C-8607-BD0C6523CCF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EBF4766-6108-48C2-972E-5D05A0959DDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2130" yWindow="2790" windowWidth="22725" windowHeight="12345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>項目番号</t>
     <rPh sb="0" eb="2">
@@ -85,7 +85,52 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>必須エラー</t>
+    <t>画面遷移</t>
+  </si>
+  <si>
+    <t>登録画面から確認画面へ遷移できる</t>
+  </si>
+  <si>
+    <t>確認画面から登録画面へ遷移できる</t>
+  </si>
+  <si>
+    <t>確認画面から完了画面へ遷移できる</t>
+  </si>
+  <si>
+    <t>確認画面から登録エラー画面へ遷移できる</t>
+  </si>
+  <si>
+    <t>登録完了画面からTOP画面へ遷移できる</t>
+  </si>
+  <si>
+    <t>登録エラー画面から登録画面へ遷移できる</t>
+  </si>
+  <si>
+    <t>入力データの保持</t>
+  </si>
+  <si>
+    <t>登録画面で入力したデータが確認画面で表示される</t>
+  </si>
+  <si>
+    <t>確認画面で表示されていたデータが登録画面の入力欄へセットされる</t>
+  </si>
+  <si>
+    <t>入力データをDB登録</t>
+  </si>
+  <si>
+    <t>確認画面で表示されていたデータがDBに登録できる</t>
+  </si>
+  <si>
+    <t>アカウント登録時に登録日時がDBに登録される</t>
+  </si>
+  <si>
+    <t>パスワードがハッシュ値で登録される</t>
+  </si>
+  <si>
+    <t>削除フラグが0で登録される</t>
+  </si>
+  <si>
+    <t>IDが自動で付与される</t>
   </si>
 </sst>
 </file>
@@ -543,15 +588,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1BE540C-CFE4-46E4-83A9-C3F67209797D}">
   <dimension ref="A1:G104"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="9.375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.625" style="2" customWidth="1"/>
     <col min="5" max="5" width="17.375" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.375" style="2" bestFit="1" customWidth="1"/>
@@ -601,10 +646,10 @@
         <v>7</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" s="5"/>
-      <c r="E5" s="11"/>
+      <c r="E5" s="10"/>
       <c r="F5" s="6"/>
       <c r="G5" s="7"/>
     </row>
@@ -614,7 +659,9 @@
         <v>2</v>
       </c>
       <c r="B6" s="10"/>
-      <c r="C6" s="5"/>
+      <c r="C6" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="D6" s="5"/>
       <c r="E6" s="11"/>
       <c r="F6" s="6"/>
@@ -626,7 +673,9 @@
         <v>3</v>
       </c>
       <c r="B7" s="10"/>
-      <c r="C7" s="8"/>
+      <c r="C7" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="D7" s="5"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -638,7 +687,9 @@
         <v>4</v>
       </c>
       <c r="B8" s="10"/>
-      <c r="C8" s="8"/>
+      <c r="C8" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="D8" s="5"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -650,7 +701,9 @@
         <v>5</v>
       </c>
       <c r="B9" s="10"/>
-      <c r="C9" s="8"/>
+      <c r="C9" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="D9" s="5"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -662,7 +715,9 @@
         <v>6</v>
       </c>
       <c r="B10" s="10"/>
-      <c r="C10" s="8"/>
+      <c r="C10" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="D10" s="5"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -673,8 +728,12 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="8"/>
+      <c r="B11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="D11" s="5"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -686,7 +745,9 @@
         <v>8</v>
       </c>
       <c r="B12" s="10"/>
-      <c r="C12" s="8"/>
+      <c r="C12" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="D12" s="5"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -697,8 +758,12 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="8"/>
+      <c r="B13" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="D13" s="5"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
@@ -710,7 +775,9 @@
         <v>10</v>
       </c>
       <c r="B14" s="10"/>
-      <c r="C14" s="8"/>
+      <c r="C14" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="D14" s="5"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -722,7 +789,9 @@
         <v>11</v>
       </c>
       <c r="B15" s="10"/>
-      <c r="C15" s="8"/>
+      <c r="C15" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="D15" s="5"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
@@ -734,7 +803,9 @@
         <v>12</v>
       </c>
       <c r="B16" s="10"/>
-      <c r="C16" s="8"/>
+      <c r="C16" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="D16" s="5"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -746,7 +817,9 @@
         <v>13</v>
       </c>
       <c r="B17" s="10"/>
-      <c r="C17" s="8"/>
+      <c r="C17" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="D17" s="5"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>

--- a/test_case/integration-test-case.xlsx
+++ b/test_case/integration-test-case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\plus_pm_jp\wp-content\uploads\blog\test-case-excel-integration-test\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EBF4766-6108-48C2-972E-5D05A0959DDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{56C3AA59-AFF2-444F-B086-D3EFF5673AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2130" yWindow="2790" windowWidth="22725" windowHeight="12345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="結合テスト" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">結合テスト!$A$4:$G$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">結合テスト!$A$4:$H$4</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,16 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
-  <si>
-    <t>項目番号</t>
-    <rPh sb="0" eb="2">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+  <si>
+    <t>テストID</t>
+  </si>
+  <si>
+    <t>前提ID</t>
   </si>
   <si>
     <t>大項目</t>
@@ -91,18 +87,42 @@
     <t>登録画面から確認画面へ遷移できる</t>
   </si>
   <si>
+    <t>1.「名前（姓）」の入力フォームへ「山田」を入力する
+2.「名前（名）」の入力フォームへ「太郎」を入力する
+3.「カナ（姓）」の入力フォームへ「ヤマダ」を入力する
+4.「カナ（名）」の入力フォームへ「タロウ」を入力する
+5.「パスワード」の入力フォームへ「abc123」を入力する
+6.「メールアドレス」の入力フォームへ「test@mail.com」を入力する
+7.「性別」のリストから「男性」を選択する
+8.「郵便番号」の入力フォームへ「1234567」を入力する
+9.「住所（都道府県）」のリストから「東京都」を選択する
+10.「住所（市区町村）」の入力フォームへ「新宿区西新宿」を入力する
+11.「住所（番地）」の入力フォームへ「1-1-1」を入力する
+12.「アカウント権限」のリストから「一般」を選択する
+13.確認ボタンをクリックする</t>
+  </si>
+  <si>
     <t>確認画面から登録画面へ遷移できる</t>
   </si>
   <si>
+    <t>1.【前に戻る】ボタンをクリックする</t>
+  </si>
+  <si>
     <t>確認画面から完了画面へ遷移できる</t>
   </si>
   <si>
+    <t>1.【登録する】ボタンをクリックする</t>
+  </si>
+  <si>
     <t>確認画面から登録エラー画面へ遷移できる</t>
   </si>
   <si>
     <t>登録完了画面からTOP画面へ遷移できる</t>
   </si>
   <si>
+    <t>1.【TOPへ戻る】ボタンをクリックする</t>
+  </si>
+  <si>
     <t>登録エラー画面から登録画面へ遷移できる</t>
   </si>
   <si>
@@ -112,7 +132,16 @@
     <t>登録画面で入力したデータが確認画面で表示される</t>
   </si>
   <si>
-    <t>確認画面で表示されていたデータが登録画面の入力欄へセットされる</t>
+    <t>1.各項目を目視する</t>
+  </si>
+  <si>
+    <t>確認画面で表示されていたデータが、登録画面の入力欄へセットされる</t>
+  </si>
+  <si>
+    <t>1.各入力欄を目視する</t>
+  </si>
+  <si>
+    <t>確認画面で表示されていたデータが、DB登録エラー画面へ遷移後、登録画面の入力欄へセットされる</t>
   </si>
   <si>
     <t>入力データをDB登録</t>
@@ -121,7 +150,10 @@
     <t>確認画面で表示されていたデータがDBに登録できる</t>
   </si>
   <si>
-    <t>アカウント登録時に登録日時がDBに登録される</t>
+    <t>1.DBを目視する</t>
+  </si>
+  <si>
+    <t>アカウント登録時に登録した日時がDBに登録される</t>
   </si>
   <si>
     <t>パスワードがハッシュ値で登録される</t>
@@ -137,9 +169,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="m/d/yy;@"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -220,7 +253,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -255,6 +288,18 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -586,39 +631,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1BE540C-CFE4-46E4-83A9-C3F67209797D}">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="9.375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="17.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="44.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="62.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="44.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="9" t="s">
@@ -636,1244 +682,1391 @@
       <c r="G4" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="238.5">
       <c r="A5" s="4">
         <f>ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>7</v>
-      </c>
+      <c r="B5" s="15"/>
       <c r="C5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="7"/>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="D5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="4">
         <f>ROW()-4</f>
         <v>2</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="B6" s="15">
+        <v>1</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="4">
         <f t="shared" ref="A7:A70" si="0">ROW()-4</f>
         <v>3</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="8" t="s">
+      <c r="B7" s="15">
+        <v>1</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B8" s="15">
+        <v>1</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B9" s="15">
+        <v>3</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B10" s="15">
+        <v>4</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B11" s="15">
+        <v>1</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B12" s="15">
+        <v>2</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B13" s="15">
+        <v>4</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="4">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="4">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="8" t="s">
+      <c r="B14" s="15">
+        <v>1</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="4">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="4">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="8" t="s">
+      <c r="B15" s="15">
+        <v>1</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="4">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="8"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="4">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="8" t="s">
+      <c r="B16" s="15"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="4">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="8"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="4">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B11" s="10" t="s">
+      <c r="B17" s="15"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="4">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="B18" s="15"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="4">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="8"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="4">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="8" t="s">
+      <c r="B19" s="15"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="4">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="8"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="4">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B13" s="10" t="s">
+      <c r="B20" s="15"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="8"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="4">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="B21" s="15"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="8"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="4">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="8"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="4">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="8" t="s">
+      <c r="B22" s="15"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="8"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="4">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="8"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="4">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="8" t="s">
+      <c r="B23" s="15"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="8"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="4">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="8"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="4">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="8" t="s">
+      <c r="B24" s="15"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="8"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="4">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="8"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="4">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="8" t="s">
+      <c r="B25" s="15"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="8"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="4">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="8"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="4">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="8"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="4">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="8"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="4">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="8"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="4">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="8"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="4">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="8"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="4">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="8"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="4">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="8"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="4">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="8"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="4">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="6"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="5"/>
       <c r="F26" s="6"/>
-      <c r="G26" s="8"/>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="G26" s="6"/>
+      <c r="H26" s="8"/>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="4">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="6"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="5"/>
       <c r="F27" s="6"/>
-      <c r="G27" s="8"/>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="G27" s="6"/>
+      <c r="H27" s="8"/>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="4">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="6"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="5"/>
       <c r="F28" s="6"/>
-      <c r="G28" s="8"/>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="G28" s="6"/>
+      <c r="H28" s="8"/>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="6"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="5"/>
       <c r="F29" s="6"/>
-      <c r="G29" s="8"/>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="G29" s="6"/>
+      <c r="H29" s="8"/>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="4">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="6"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="5"/>
       <c r="F30" s="6"/>
-      <c r="G30" s="8"/>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="G30" s="6"/>
+      <c r="H30" s="8"/>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="6"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="5"/>
       <c r="F31" s="6"/>
-      <c r="G31" s="8"/>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="G31" s="6"/>
+      <c r="H31" s="8"/>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="4">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="6"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="5"/>
       <c r="F32" s="6"/>
-      <c r="G32" s="8"/>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="G32" s="6"/>
+      <c r="H32" s="8"/>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="4">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="6"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="5"/>
       <c r="F33" s="6"/>
-      <c r="G33" s="8"/>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="G33" s="6"/>
+      <c r="H33" s="8"/>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="6"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="5"/>
       <c r="F34" s="6"/>
-      <c r="G34" s="8"/>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="G34" s="6"/>
+      <c r="H34" s="8"/>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="4">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="6"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="5"/>
       <c r="F35" s="6"/>
-      <c r="G35" s="8"/>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="G35" s="6"/>
+      <c r="H35" s="8"/>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="4">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="6"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="5"/>
       <c r="F36" s="6"/>
-      <c r="G36" s="8"/>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="G36" s="6"/>
+      <c r="H36" s="8"/>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="4">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="6"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="5"/>
       <c r="F37" s="6"/>
-      <c r="G37" s="8"/>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="G37" s="6"/>
+      <c r="H37" s="8"/>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="4">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="6"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="5"/>
       <c r="F38" s="6"/>
-      <c r="G38" s="8"/>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="G38" s="6"/>
+      <c r="H38" s="8"/>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="4">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="6"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="5"/>
       <c r="F39" s="6"/>
-      <c r="G39" s="8"/>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="G39" s="6"/>
+      <c r="H39" s="8"/>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="4">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="6"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="5"/>
       <c r="F40" s="6"/>
-      <c r="G40" s="8"/>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="G40" s="6"/>
+      <c r="H40" s="8"/>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="4">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="6"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="5"/>
       <c r="F41" s="6"/>
-      <c r="G41" s="8"/>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="G41" s="6"/>
+      <c r="H41" s="8"/>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="4">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B42" s="10"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="6"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="5"/>
       <c r="F42" s="6"/>
-      <c r="G42" s="8"/>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="G42" s="6"/>
+      <c r="H42" s="8"/>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="4">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B43" s="10"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="6"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="5"/>
       <c r="F43" s="6"/>
-      <c r="G43" s="8"/>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="G43" s="6"/>
+      <c r="H43" s="8"/>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="4">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B44" s="10"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="6"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="5"/>
       <c r="F44" s="6"/>
-      <c r="G44" s="8"/>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="G44" s="6"/>
+      <c r="H44" s="8"/>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="4">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B45" s="10"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="6"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="5"/>
       <c r="F45" s="6"/>
-      <c r="G45" s="8"/>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="G45" s="6"/>
+      <c r="H45" s="8"/>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="4">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B46" s="10"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="6"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="5"/>
       <c r="F46" s="6"/>
-      <c r="G46" s="8"/>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="G46" s="6"/>
+      <c r="H46" s="8"/>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="4">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B47" s="10"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="6"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="5"/>
       <c r="F47" s="6"/>
-      <c r="G47" s="8"/>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="G47" s="6"/>
+      <c r="H47" s="8"/>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="4">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B48" s="10"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="6"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="5"/>
       <c r="F48" s="6"/>
-      <c r="G48" s="8"/>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="G48" s="6"/>
+      <c r="H48" s="8"/>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="4">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B49" s="10"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="6"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="5"/>
       <c r="F49" s="6"/>
-      <c r="G49" s="8"/>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="G49" s="6"/>
+      <c r="H49" s="8"/>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="4">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B50" s="10"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="6"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="5"/>
       <c r="F50" s="6"/>
-      <c r="G50" s="8"/>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="G50" s="6"/>
+      <c r="H50" s="8"/>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="4">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B51" s="10"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="6"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="5"/>
       <c r="F51" s="6"/>
-      <c r="G51" s="8"/>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="G51" s="6"/>
+      <c r="H51" s="8"/>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="4">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B52" s="10"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="6"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="5"/>
       <c r="F52" s="6"/>
-      <c r="G52" s="8"/>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="G52" s="6"/>
+      <c r="H52" s="8"/>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="4">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B53" s="10"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="6"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="5"/>
       <c r="F53" s="6"/>
-      <c r="G53" s="8"/>
-    </row>
-    <row r="54" spans="1:7">
+      <c r="G53" s="6"/>
+      <c r="H53" s="8"/>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="4">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B54" s="10"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="6"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="5"/>
       <c r="F54" s="6"/>
-      <c r="G54" s="8"/>
-    </row>
-    <row r="55" spans="1:7">
+      <c r="G54" s="6"/>
+      <c r="H54" s="8"/>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="4">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B55" s="10"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="6"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="5"/>
       <c r="F55" s="6"/>
-      <c r="G55" s="8"/>
-    </row>
-    <row r="56" spans="1:7">
+      <c r="G55" s="6"/>
+      <c r="H55" s="8"/>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="4">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B56" s="10"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="6"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="5"/>
       <c r="F56" s="6"/>
-      <c r="G56" s="8"/>
-    </row>
-    <row r="57" spans="1:7">
+      <c r="G56" s="6"/>
+      <c r="H56" s="8"/>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="4">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B57" s="10"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="6"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="5"/>
       <c r="F57" s="6"/>
-      <c r="G57" s="8"/>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="G57" s="6"/>
+      <c r="H57" s="8"/>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="4">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B58" s="10"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="6"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="5"/>
       <c r="F58" s="6"/>
-      <c r="G58" s="8"/>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="G58" s="6"/>
+      <c r="H58" s="8"/>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="4">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="B59" s="10"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="6"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="5"/>
       <c r="F59" s="6"/>
-      <c r="G59" s="8"/>
-    </row>
-    <row r="60" spans="1:7">
+      <c r="G59" s="6"/>
+      <c r="H59" s="8"/>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="4">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="B60" s="10"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="6"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="5"/>
       <c r="F60" s="6"/>
-      <c r="G60" s="8"/>
-    </row>
-    <row r="61" spans="1:7">
+      <c r="G60" s="6"/>
+      <c r="H60" s="8"/>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="4">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B61" s="10"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="6"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="5"/>
       <c r="F61" s="6"/>
-      <c r="G61" s="8"/>
-    </row>
-    <row r="62" spans="1:7">
+      <c r="G61" s="6"/>
+      <c r="H61" s="8"/>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="4">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="B62" s="10"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="6"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="5"/>
       <c r="F62" s="6"/>
-      <c r="G62" s="8"/>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="G62" s="6"/>
+      <c r="H62" s="8"/>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="4">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="B63" s="10"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="6"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="5"/>
       <c r="F63" s="6"/>
-      <c r="G63" s="8"/>
-    </row>
-    <row r="64" spans="1:7">
+      <c r="G63" s="6"/>
+      <c r="H63" s="8"/>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="4">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="B64" s="10"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="6"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="5"/>
       <c r="F64" s="6"/>
-      <c r="G64" s="8"/>
-    </row>
-    <row r="65" spans="1:7">
+      <c r="G64" s="6"/>
+      <c r="H64" s="8"/>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="4">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="B65" s="10"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="6"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="5"/>
       <c r="F65" s="6"/>
-      <c r="G65" s="8"/>
-    </row>
-    <row r="66" spans="1:7">
+      <c r="G65" s="6"/>
+      <c r="H65" s="8"/>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="4">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="B66" s="10"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="6"/>
+      <c r="B66" s="15"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="5"/>
       <c r="F66" s="6"/>
-      <c r="G66" s="8"/>
-    </row>
-    <row r="67" spans="1:7">
+      <c r="G66" s="6"/>
+      <c r="H66" s="8"/>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="4">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="B67" s="10"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="6"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="5"/>
       <c r="F67" s="6"/>
-      <c r="G67" s="8"/>
-    </row>
-    <row r="68" spans="1:7">
+      <c r="G67" s="6"/>
+      <c r="H67" s="8"/>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="4">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="B68" s="10"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="6"/>
+      <c r="B68" s="15"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="5"/>
       <c r="F68" s="6"/>
-      <c r="G68" s="8"/>
-    </row>
-    <row r="69" spans="1:7">
+      <c r="G68" s="6"/>
+      <c r="H68" s="8"/>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="4">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="B69" s="10"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="6"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="5"/>
       <c r="F69" s="6"/>
-      <c r="G69" s="8"/>
-    </row>
-    <row r="70" spans="1:7">
+      <c r="G69" s="6"/>
+      <c r="H69" s="8"/>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="4">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="B70" s="10"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="6"/>
+      <c r="B70" s="15"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="5"/>
       <c r="F70" s="6"/>
-      <c r="G70" s="8"/>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="G70" s="6"/>
+      <c r="H70" s="8"/>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="4">
         <f t="shared" ref="A71:A104" si="1">ROW()-4</f>
         <v>67</v>
       </c>
-      <c r="B71" s="10"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="6"/>
+      <c r="B71" s="15"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="5"/>
       <c r="F71" s="6"/>
-      <c r="G71" s="8"/>
-    </row>
-    <row r="72" spans="1:7">
+      <c r="G71" s="6"/>
+      <c r="H71" s="8"/>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="4">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="B72" s="10"/>
-      <c r="C72" s="8"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="6"/>
+      <c r="B72" s="15"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="5"/>
       <c r="F72" s="6"/>
-      <c r="G72" s="8"/>
-    </row>
-    <row r="73" spans="1:7">
+      <c r="G72" s="6"/>
+      <c r="H72" s="8"/>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="4">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="B73" s="10"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="6"/>
+      <c r="B73" s="15"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="5"/>
       <c r="F73" s="6"/>
-      <c r="G73" s="8"/>
-    </row>
-    <row r="74" spans="1:7">
+      <c r="G73" s="6"/>
+      <c r="H73" s="8"/>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="4">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="B74" s="10"/>
-      <c r="C74" s="8"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="6"/>
+      <c r="B74" s="15"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="5"/>
       <c r="F74" s="6"/>
-      <c r="G74" s="8"/>
-    </row>
-    <row r="75" spans="1:7">
+      <c r="G74" s="6"/>
+      <c r="H74" s="8"/>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="4">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="B75" s="10"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="6"/>
+      <c r="B75" s="15"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="5"/>
       <c r="F75" s="6"/>
-      <c r="G75" s="8"/>
-    </row>
-    <row r="76" spans="1:7">
+      <c r="G75" s="6"/>
+      <c r="H75" s="8"/>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="4">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="B76" s="10"/>
-      <c r="C76" s="8"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="6"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="5"/>
       <c r="F76" s="6"/>
-      <c r="G76" s="8"/>
-    </row>
-    <row r="77" spans="1:7">
+      <c r="G76" s="6"/>
+      <c r="H76" s="8"/>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="4">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="B77" s="10"/>
-      <c r="C77" s="8"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="6"/>
+      <c r="B77" s="15"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="5"/>
       <c r="F77" s="6"/>
-      <c r="G77" s="8"/>
-    </row>
-    <row r="78" spans="1:7">
+      <c r="G77" s="6"/>
+      <c r="H77" s="8"/>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="4">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="B78" s="10"/>
-      <c r="C78" s="8"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="6"/>
+      <c r="B78" s="15"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="5"/>
       <c r="F78" s="6"/>
-      <c r="G78" s="8"/>
-    </row>
-    <row r="79" spans="1:7">
+      <c r="G78" s="6"/>
+      <c r="H78" s="8"/>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="4">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="B79" s="10"/>
-      <c r="C79" s="8"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="6"/>
+      <c r="B79" s="15"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="5"/>
       <c r="F79" s="6"/>
-      <c r="G79" s="8"/>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="G79" s="6"/>
+      <c r="H79" s="8"/>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="4">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="B80" s="10"/>
-      <c r="C80" s="8"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="6"/>
+      <c r="B80" s="15"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="5"/>
       <c r="F80" s="6"/>
-      <c r="G80" s="8"/>
-    </row>
-    <row r="81" spans="1:7">
+      <c r="G80" s="6"/>
+      <c r="H80" s="8"/>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="4">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
-      <c r="B81" s="10"/>
-      <c r="C81" s="8"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="6"/>
+      <c r="B81" s="15"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="5"/>
       <c r="F81" s="6"/>
-      <c r="G81" s="8"/>
-    </row>
-    <row r="82" spans="1:7">
+      <c r="G81" s="6"/>
+      <c r="H81" s="8"/>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="4">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
-      <c r="B82" s="10"/>
-      <c r="C82" s="8"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="6"/>
+      <c r="B82" s="15"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="5"/>
       <c r="F82" s="6"/>
-      <c r="G82" s="8"/>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="G82" s="6"/>
+      <c r="H82" s="8"/>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="4">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
-      <c r="B83" s="10"/>
-      <c r="C83" s="8"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="6"/>
+      <c r="B83" s="15"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="5"/>
       <c r="F83" s="6"/>
-      <c r="G83" s="8"/>
-    </row>
-    <row r="84" spans="1:7">
+      <c r="G83" s="6"/>
+      <c r="H83" s="8"/>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="4">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="B84" s="10"/>
-      <c r="C84" s="8"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="6"/>
+      <c r="B84" s="15"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="5"/>
       <c r="F84" s="6"/>
-      <c r="G84" s="8"/>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="G84" s="6"/>
+      <c r="H84" s="8"/>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="4">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
-      <c r="B85" s="10"/>
-      <c r="C85" s="8"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="6"/>
+      <c r="B85" s="15"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="5"/>
       <c r="F85" s="6"/>
-      <c r="G85" s="8"/>
-    </row>
-    <row r="86" spans="1:7">
+      <c r="G85" s="6"/>
+      <c r="H85" s="8"/>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="4">
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
-      <c r="B86" s="10"/>
-      <c r="C86" s="8"/>
-      <c r="D86" s="5"/>
-      <c r="E86" s="6"/>
+      <c r="B86" s="15"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="5"/>
       <c r="F86" s="6"/>
-      <c r="G86" s="8"/>
-    </row>
-    <row r="87" spans="1:7">
+      <c r="G86" s="6"/>
+      <c r="H86" s="8"/>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="4">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
-      <c r="B87" s="10"/>
-      <c r="C87" s="8"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="6"/>
+      <c r="B87" s="15"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="5"/>
       <c r="F87" s="6"/>
-      <c r="G87" s="8"/>
-    </row>
-    <row r="88" spans="1:7">
+      <c r="G87" s="6"/>
+      <c r="H87" s="8"/>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="4">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-      <c r="B88" s="10"/>
-      <c r="C88" s="8"/>
-      <c r="D88" s="5"/>
-      <c r="E88" s="6"/>
+      <c r="B88" s="15"/>
+      <c r="C88" s="10"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="5"/>
       <c r="F88" s="6"/>
-      <c r="G88" s="8"/>
-    </row>
-    <row r="89" spans="1:7">
+      <c r="G88" s="6"/>
+      <c r="H88" s="8"/>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="4">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="B89" s="10"/>
-      <c r="C89" s="8"/>
-      <c r="D89" s="5"/>
-      <c r="E89" s="6"/>
+      <c r="B89" s="15"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="5"/>
       <c r="F89" s="6"/>
-      <c r="G89" s="8"/>
-    </row>
-    <row r="90" spans="1:7">
+      <c r="G89" s="6"/>
+      <c r="H89" s="8"/>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="4">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
-      <c r="B90" s="10"/>
-      <c r="C90" s="8"/>
-      <c r="D90" s="5"/>
-      <c r="E90" s="6"/>
+      <c r="B90" s="15"/>
+      <c r="C90" s="10"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="5"/>
       <c r="F90" s="6"/>
-      <c r="G90" s="8"/>
-    </row>
-    <row r="91" spans="1:7">
+      <c r="G90" s="6"/>
+      <c r="H90" s="8"/>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="4">
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
-      <c r="B91" s="10"/>
-      <c r="C91" s="8"/>
-      <c r="D91" s="5"/>
-      <c r="E91" s="6"/>
+      <c r="B91" s="15"/>
+      <c r="C91" s="10"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="5"/>
       <c r="F91" s="6"/>
-      <c r="G91" s="8"/>
-    </row>
-    <row r="92" spans="1:7">
+      <c r="G91" s="6"/>
+      <c r="H91" s="8"/>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="4">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
-      <c r="B92" s="10"/>
-      <c r="C92" s="8"/>
-      <c r="D92" s="5"/>
-      <c r="E92" s="6"/>
+      <c r="B92" s="15"/>
+      <c r="C92" s="10"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="5"/>
       <c r="F92" s="6"/>
-      <c r="G92" s="8"/>
-    </row>
-    <row r="93" spans="1:7">
+      <c r="G92" s="6"/>
+      <c r="H92" s="8"/>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="4">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
-      <c r="B93" s="10"/>
-      <c r="C93" s="8"/>
-      <c r="D93" s="5"/>
-      <c r="E93" s="6"/>
+      <c r="B93" s="15"/>
+      <c r="C93" s="10"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="5"/>
       <c r="F93" s="6"/>
-      <c r="G93" s="8"/>
-    </row>
-    <row r="94" spans="1:7">
+      <c r="G93" s="6"/>
+      <c r="H93" s="8"/>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="4">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="B94" s="10"/>
-      <c r="C94" s="8"/>
-      <c r="D94" s="5"/>
-      <c r="E94" s="6"/>
+      <c r="B94" s="15"/>
+      <c r="C94" s="10"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="5"/>
       <c r="F94" s="6"/>
-      <c r="G94" s="8"/>
-    </row>
-    <row r="95" spans="1:7">
+      <c r="G94" s="6"/>
+      <c r="H94" s="8"/>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="4">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="B95" s="10"/>
-      <c r="C95" s="8"/>
-      <c r="D95" s="5"/>
-      <c r="E95" s="6"/>
+      <c r="B95" s="15"/>
+      <c r="C95" s="10"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="5"/>
       <c r="F95" s="6"/>
-      <c r="G95" s="8"/>
-    </row>
-    <row r="96" spans="1:7">
+      <c r="G95" s="6"/>
+      <c r="H95" s="8"/>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="4">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
-      <c r="B96" s="10"/>
-      <c r="C96" s="8"/>
-      <c r="D96" s="5"/>
-      <c r="E96" s="6"/>
+      <c r="B96" s="15"/>
+      <c r="C96" s="10"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="5"/>
       <c r="F96" s="6"/>
-      <c r="G96" s="8"/>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="G96" s="6"/>
+      <c r="H96" s="8"/>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="4">
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
-      <c r="B97" s="10"/>
-      <c r="C97" s="8"/>
-      <c r="D97" s="5"/>
-      <c r="E97" s="6"/>
+      <c r="B97" s="15"/>
+      <c r="C97" s="10"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="5"/>
       <c r="F97" s="6"/>
-      <c r="G97" s="8"/>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="G97" s="6"/>
+      <c r="H97" s="8"/>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="4">
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
-      <c r="B98" s="10"/>
-      <c r="C98" s="8"/>
-      <c r="D98" s="5"/>
-      <c r="E98" s="6"/>
+      <c r="B98" s="15"/>
+      <c r="C98" s="10"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="5"/>
       <c r="F98" s="6"/>
-      <c r="G98" s="8"/>
-    </row>
-    <row r="99" spans="1:7">
+      <c r="G98" s="6"/>
+      <c r="H98" s="8"/>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="4">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="B99" s="10"/>
-      <c r="C99" s="8"/>
-      <c r="D99" s="5"/>
-      <c r="E99" s="6"/>
+      <c r="B99" s="15"/>
+      <c r="C99" s="10"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="5"/>
       <c r="F99" s="6"/>
-      <c r="G99" s="8"/>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="G99" s="6"/>
+      <c r="H99" s="8"/>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="4">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
-      <c r="B100" s="10"/>
-      <c r="C100" s="8"/>
-      <c r="D100" s="5"/>
-      <c r="E100" s="6"/>
+      <c r="B100" s="15"/>
+      <c r="C100" s="10"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="5"/>
       <c r="F100" s="6"/>
-      <c r="G100" s="8"/>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="G100" s="6"/>
+      <c r="H100" s="8"/>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="4">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="B101" s="10"/>
-      <c r="C101" s="8"/>
-      <c r="D101" s="5"/>
-      <c r="E101" s="6"/>
+      <c r="B101" s="15"/>
+      <c r="C101" s="10"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="5"/>
       <c r="F101" s="6"/>
-      <c r="G101" s="8"/>
-    </row>
-    <row r="102" spans="1:7">
+      <c r="G101" s="6"/>
+      <c r="H101" s="8"/>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="4">
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
-      <c r="B102" s="10"/>
-      <c r="C102" s="8"/>
-      <c r="D102" s="5"/>
-      <c r="E102" s="6"/>
+      <c r="B102" s="15"/>
+      <c r="C102" s="10"/>
+      <c r="D102" s="8"/>
+      <c r="E102" s="5"/>
       <c r="F102" s="6"/>
-      <c r="G102" s="8"/>
-    </row>
-    <row r="103" spans="1:7">
+      <c r="G102" s="6"/>
+      <c r="H102" s="8"/>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="4">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
-      <c r="B103" s="10"/>
-      <c r="C103" s="8"/>
-      <c r="D103" s="5"/>
-      <c r="E103" s="6"/>
+      <c r="B103" s="15"/>
+      <c r="C103" s="10"/>
+      <c r="D103" s="8"/>
+      <c r="E103" s="5"/>
       <c r="F103" s="6"/>
-      <c r="G103" s="8"/>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="G103" s="6"/>
+      <c r="H103" s="8"/>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="4">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="B104" s="10"/>
-      <c r="C104" s="8"/>
-      <c r="D104" s="5"/>
-      <c r="E104" s="6"/>
+      <c r="B104" s="15"/>
+      <c r="C104" s="10"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="5"/>
       <c r="F104" s="6"/>
-      <c r="G104" s="8"/>
+      <c r="G104" s="6"/>
+      <c r="H104" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:G4" xr:uid="{A873AFF5-382B-4441-AB55-F296E2858406}"/>
+  <autoFilter ref="A4:H4" xr:uid="{A873AFF5-382B-4441-AB55-F296E2858406}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:C4" xr:uid="{9DCF507F-0535-49AB-B2CD-7905C6326998}"/>
+    <dataValidation imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:D4" xr:uid="{9DCF507F-0535-49AB-B2CD-7905C6326998}"/>
   </dataValidations>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/test_case/integration-test-case.xlsx
+++ b/test_case/integration-test-case.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26405"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\plus_pm_jp\wp-content\uploads\blog\test-case-excel-integration-test\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{56C3AA59-AFF2-444F-B086-D3EFF5673AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FDC08DF-4867-46B8-A22B-12B7A6F094D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2130" yWindow="2790" windowWidth="22725" windowHeight="12345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="結合テスト" sheetId="3" r:id="rId1"/>
+    <sheet name="マスタ" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">結合テスト!$A$4:$H$4</definedName>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="130">
   <si>
     <t>テストID</t>
   </si>
@@ -91,8 +92,8 @@
 2.「名前（名）」の入力フォームへ「太郎」を入力する
 3.「カナ（姓）」の入力フォームへ「ヤマダ」を入力する
 4.「カナ（名）」の入力フォームへ「タロウ」を入力する
-5.「パスワード」の入力フォームへ「abc123」を入力する
-6.「メールアドレス」の入力フォームへ「test@mail.com」を入力する
+5.「メールアドレス」の入力フォームへ「test@mail.com」を入力する
+6.「パスワード」の入力フォームへ「abc123」を入力する
 7.「性別」のリストから「男性」を選択する
 8.「郵便番号」の入力フォームへ「1234567」を入力する
 9.「住所（都道府県）」のリストから「東京都」を選択する
@@ -102,19 +103,35 @@
 13.確認ボタンをクリックする</t>
   </si>
   <si>
+    <t>確認画面が表示される</t>
+  </si>
+  <si>
     <t>確認画面から登録画面へ遷移できる</t>
   </si>
   <si>
     <t>1.【前に戻る】ボタンをクリックする</t>
   </si>
   <si>
+    <t>登録画面が表示される</t>
+  </si>
+  <si>
     <t>確認画面から完了画面へ遷移できる</t>
   </si>
   <si>
     <t>1.【登録する】ボタンをクリックする</t>
   </si>
   <si>
-    <t>確認画面から登録エラー画面へ遷移できる</t>
+    <t>完了画面が表示される</t>
+  </si>
+  <si>
+    <t>確認画面から完了画面へ遷移前に、登録エラーとなった場合、登録エラー画面へ遷移できる</t>
+  </si>
+  <si>
+    <t>データベース側で登録エラーとなる設定が必要
+1.【登録する】ボタンをクリックする</t>
+  </si>
+  <si>
+    <t>登録エラー画面が表示される</t>
   </si>
   <si>
     <t>登録完了画面からTOP画面へ遷移できる</t>
@@ -123,7 +140,10 @@
     <t>1.【TOPへ戻る】ボタンをクリックする</t>
   </si>
   <si>
-    <t>登録エラー画面から登録画面へ遷移できる</t>
+    <t>TOP画面が表示される</t>
+  </si>
+  <si>
+    <t>登録エラー画面からTOP画面へ遷移できる</t>
   </si>
   <si>
     <t>入力データの保持</t>
@@ -132,7 +152,11 @@
     <t>登録画面で入力したデータが確認画面で表示される</t>
   </si>
   <si>
-    <t>1.各項目を目視する</t>
+    <t>1.各項目の右側の表示を目視する</t>
+  </si>
+  <si>
+    <t>各項目の右側へ、「テストID：1」にて入力したテキストが表示される
+パスワードは文字数分「●」が表示される</t>
   </si>
   <si>
     <t>確認画面で表示されていたデータが、登録画面の入力欄へセットされる</t>
@@ -141,7 +165,7 @@
     <t>1.各入力欄を目視する</t>
   </si>
   <si>
-    <t>確認画面で表示されていたデータが、DB登録エラー画面へ遷移後、登録画面の入力欄へセットされる</t>
+    <t>各入力欄へ、「テストID：7」にて、表示されていたテキストが表示される</t>
   </si>
   <si>
     <t>入力データをDB登録</t>
@@ -150,19 +174,292 @@
     <t>確認画面で表示されていたデータがDBに登録できる</t>
   </si>
   <si>
-    <t>1.DBを目視する</t>
-  </si>
-  <si>
-    <t>アカウント登録時に登録した日時がDBに登録される</t>
-  </si>
-  <si>
-    <t>パスワードがハッシュ値で登録される</t>
-  </si>
-  <si>
-    <t>削除フラグが0で登録される</t>
-  </si>
-  <si>
-    <t>IDが自動で付与される</t>
+    <t>1.DBのカラムごとに登録されているテキストを目視する</t>
+  </si>
+  <si>
+    <t>DBに登録するデータに対して、登録した日時が付与される</t>
+  </si>
+  <si>
+    <t>1.DBの「registered_time」カラムの日時を目視する</t>
+  </si>
+  <si>
+    <t>DBに登録するデータ内の、パスワードがハッシュ値で登録される</t>
+  </si>
+  <si>
+    <t>1.DBの「password」カラムのテキストを目視する</t>
+  </si>
+  <si>
+    <t>DBに登録するデータに対して、削除フラグ「0」が付与される</t>
+  </si>
+  <si>
+    <t>1.DBの「delete_flag」カラムの数字を目視する</t>
+  </si>
+  <si>
+    <t>DBに登録するデータに対して、IDが自動で付与される</t>
+  </si>
+  <si>
+    <t>1.DBの「id」カラムの数字を目視する</t>
+  </si>
+  <si>
+    <t>DBのカラム</t>
+  </si>
+  <si>
+    <t>登録画面の項目名</t>
+  </si>
+  <si>
+    <t>性別</t>
+  </si>
+  <si>
+    <t>値</t>
+  </si>
+  <si>
+    <t>都道府県名</t>
+  </si>
+  <si>
+    <t>アカウント権限</t>
+  </si>
+  <si>
+    <t>削除フラグ</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>該当なし</t>
+  </si>
+  <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>北海道</t>
+  </si>
+  <si>
+    <t>一般</t>
+  </si>
+  <si>
+    <t>無効</t>
+  </si>
+  <si>
+    <t>family_name</t>
+  </si>
+  <si>
+    <t>名前（姓）</t>
+  </si>
+  <si>
+    <t>女</t>
+  </si>
+  <si>
+    <t>青森県</t>
+  </si>
+  <si>
+    <t>管理者</t>
+  </si>
+  <si>
+    <t>有効</t>
+  </si>
+  <si>
+    <t>last_name</t>
+  </si>
+  <si>
+    <t>名前（名）</t>
+  </si>
+  <si>
+    <t>岩手県</t>
+  </si>
+  <si>
+    <t>family_name_kana</t>
+  </si>
+  <si>
+    <t>カナ（姓）</t>
+  </si>
+  <si>
+    <t>宮城県</t>
+  </si>
+  <si>
+    <t>last_name_kana</t>
+  </si>
+  <si>
+    <t>カナ（名）</t>
+  </si>
+  <si>
+    <t>秋田県</t>
+  </si>
+  <si>
+    <t>mail</t>
+  </si>
+  <si>
+    <t>メールアドレス</t>
+  </si>
+  <si>
+    <t>山形県</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>パスワード</t>
+  </si>
+  <si>
+    <t>福島県</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 新潟県</t>
+  </si>
+  <si>
+    <t>postal_code</t>
+  </si>
+  <si>
+    <t>郵便番号</t>
+  </si>
+  <si>
+    <t>富山県</t>
+  </si>
+  <si>
+    <t>prefecture</t>
+  </si>
+  <si>
+    <t>住所（都道府県）</t>
+  </si>
+  <si>
+    <t>石川県</t>
+  </si>
+  <si>
+    <t>address_1</t>
+  </si>
+  <si>
+    <t>住所（市区町村）</t>
+  </si>
+  <si>
+    <t>福井県</t>
+  </si>
+  <si>
+    <t>address_2</t>
+  </si>
+  <si>
+    <t>住所（番地）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 茨城県</t>
+  </si>
+  <si>
+    <t>authority</t>
+  </si>
+  <si>
+    <t>栃木県</t>
+  </si>
+  <si>
+    <t>delete_flag</t>
+  </si>
+  <si>
+    <t>群馬県</t>
+  </si>
+  <si>
+    <t>registered_time</t>
+  </si>
+  <si>
+    <t>登録日時</t>
+  </si>
+  <si>
+    <t>埼玉県</t>
+  </si>
+  <si>
+    <t>千葉県</t>
+  </si>
+  <si>
+    <t>東京都</t>
+  </si>
+  <si>
+    <t>神奈川県</t>
+  </si>
+  <si>
+    <t>山梨県</t>
+  </si>
+  <si>
+    <t>長野県</t>
+  </si>
+  <si>
+    <t>岐阜県</t>
+  </si>
+  <si>
+    <t>静岡県</t>
+  </si>
+  <si>
+    <t>愛知県</t>
+  </si>
+  <si>
+    <t>三重県</t>
+  </si>
+  <si>
+    <t>滋賀県</t>
+  </si>
+  <si>
+    <t>京都府</t>
+  </si>
+  <si>
+    <t>大阪府</t>
+  </si>
+  <si>
+    <t>兵庫県</t>
+  </si>
+  <si>
+    <t>奈良県</t>
+  </si>
+  <si>
+    <t>和歌山県</t>
+  </si>
+  <si>
+    <t>鳥取県</t>
+  </si>
+  <si>
+    <t>島根県</t>
+  </si>
+  <si>
+    <t>岡山県</t>
+  </si>
+  <si>
+    <t>広島県</t>
+  </si>
+  <si>
+    <t>山口県</t>
+  </si>
+  <si>
+    <t>徳島県</t>
+  </si>
+  <si>
+    <t>香川県</t>
+  </si>
+  <si>
+    <t>愛媛県</t>
+  </si>
+  <si>
+    <t>高知県</t>
+  </si>
+  <si>
+    <t>福岡県</t>
+  </si>
+  <si>
+    <t>佐賀県</t>
+  </si>
+  <si>
+    <t>長崎県</t>
+  </si>
+  <si>
+    <t>熊本県</t>
+  </si>
+  <si>
+    <t>大分県</t>
+  </si>
+  <si>
+    <t>宮崎県</t>
+  </si>
+  <si>
+    <t>鹿児島県</t>
+  </si>
+  <si>
+    <t>沖縄県</t>
   </si>
 </sst>
 </file>
@@ -221,7 +518,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -244,6 +541,122 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -253,7 +666,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -287,9 +700,6 @@
     <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -301,6 +711,84 @@
     </xf>
     <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -634,28 +1122,26 @@
   <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="9.375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.875" style="15" customWidth="1"/>
     <col min="5" max="5" width="62.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.75" style="19" customWidth="1"/>
     <col min="7" max="7" width="11.375" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="44.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1"/>
-      <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1"/>
-      <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1"/>
@@ -664,19 +1150,19 @@
       <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="16" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="20" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="9" t="s">
@@ -691,17 +1177,19 @@
         <f>ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="B5" s="15"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="10"/>
+      <c r="F5" s="17" t="s">
+        <v>11</v>
+      </c>
       <c r="G5" s="6"/>
       <c r="H5" s="7"/>
     </row>
@@ -710,17 +1198,19 @@
         <f>ROW()-4</f>
         <v>2</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="14">
         <v>1</v>
       </c>
       <c r="C6" s="10"/>
-      <c r="D6" s="5" t="s">
-        <v>11</v>
+      <c r="D6" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>14</v>
+      </c>
       <c r="G6" s="6"/>
       <c r="H6" s="8"/>
     </row>
@@ -729,36 +1219,40 @@
         <f t="shared" ref="A7:A70" si="0">ROW()-4</f>
         <v>3</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="14">
         <v>1</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="8" t="s">
-        <v>13</v>
+      <c r="D7" s="18" t="s">
+        <v>15</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="6"/>
+        <v>16</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>17</v>
+      </c>
       <c r="G7" s="6"/>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" ht="36.75">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="14">
         <v>1</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="6"/>
+      <c r="D8" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>20</v>
+      </c>
       <c r="G8" s="6"/>
       <c r="H8" s="8"/>
     </row>
@@ -767,17 +1261,19 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="14">
         <v>3</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="8" t="s">
-        <v>16</v>
+      <c r="D9" s="18" t="s">
+        <v>21</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>23</v>
+      </c>
       <c r="G9" s="6"/>
       <c r="H9" s="8"/>
     </row>
@@ -786,57 +1282,63 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="14">
         <v>4</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="8" t="s">
-        <v>18</v>
+      <c r="D10" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>23</v>
+      </c>
       <c r="G10" s="6"/>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" ht="55.5">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="14">
         <v>1</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>26</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="6"/>
+        <v>27</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>28</v>
+      </c>
       <c r="G11" s="6"/>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" ht="36.75">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="14">
         <v>2</v>
       </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="8" t="s">
-        <v>22</v>
+      <c r="D12" s="18" t="s">
+        <v>29</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>31</v>
+      </c>
       <c r="G12" s="6"/>
       <c r="H12" s="8"/>
     </row>
@@ -845,87 +1347,95 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B13" s="15">
-        <v>4</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="8" t="s">
-        <v>24</v>
+      <c r="B13" s="14">
+        <v>3</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>33</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="6"/>
+        <v>34</v>
+      </c>
+      <c r="F13" s="22"/>
       <c r="G13" s="6"/>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" ht="36.75">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B14" s="15">
-        <v>1</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>26</v>
+      <c r="B14" s="14">
+        <v>3</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="18" t="s">
+        <v>35</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="F14" s="22"/>
       <c r="G14" s="6"/>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" ht="36.75">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B15" s="15">
-        <v>1</v>
+      <c r="B15" s="14">
+        <v>3</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="5">
-        <v>1</v>
-      </c>
-      <c r="F15" s="6"/>
+      <c r="D15" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="22"/>
       <c r="G15" s="6"/>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" ht="36.75">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B16" s="15"/>
+      <c r="B16" s="14">
+        <v>3</v>
+      </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="6"/>
+      <c r="D16" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="22"/>
       <c r="G16" s="6"/>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" ht="36.75">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B17" s="15"/>
+      <c r="B17" s="14">
+        <v>3</v>
+      </c>
       <c r="C17" s="10"/>
-      <c r="D17" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
+      <c r="D17" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="22"/>
       <c r="G17" s="6"/>
       <c r="H17" s="8"/>
     </row>
@@ -934,13 +1444,11 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B18" s="15"/>
+      <c r="B18" s="14"/>
       <c r="C18" s="10"/>
-      <c r="D18" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="D18" s="18"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="6"/>
+      <c r="F18" s="22"/>
       <c r="G18" s="6"/>
       <c r="H18" s="8"/>
     </row>
@@ -949,11 +1457,11 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B19" s="15"/>
+      <c r="B19" s="14"/>
       <c r="C19" s="10"/>
-      <c r="D19" s="8"/>
+      <c r="D19" s="18"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="6"/>
+      <c r="F19" s="22"/>
       <c r="G19" s="6"/>
       <c r="H19" s="8"/>
     </row>
@@ -962,11 +1470,11 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B20" s="15"/>
+      <c r="B20" s="14"/>
       <c r="C20" s="10"/>
-      <c r="D20" s="8"/>
+      <c r="D20" s="18"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="6"/>
+      <c r="F20" s="22"/>
       <c r="G20" s="6"/>
       <c r="H20" s="8"/>
     </row>
@@ -975,11 +1483,11 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B21" s="15"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="10"/>
-      <c r="D21" s="8"/>
+      <c r="D21" s="18"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="6"/>
+      <c r="F21" s="22"/>
       <c r="G21" s="6"/>
       <c r="H21" s="8"/>
     </row>
@@ -988,11 +1496,11 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B22" s="15"/>
+      <c r="B22" s="14"/>
       <c r="C22" s="10"/>
-      <c r="D22" s="8"/>
+      <c r="D22" s="18"/>
       <c r="E22" s="5"/>
-      <c r="F22" s="6"/>
+      <c r="F22" s="22"/>
       <c r="G22" s="6"/>
       <c r="H22" s="8"/>
     </row>
@@ -1001,11 +1509,11 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B23" s="15"/>
+      <c r="B23" s="14"/>
       <c r="C23" s="10"/>
-      <c r="D23" s="8"/>
+      <c r="D23" s="18"/>
       <c r="E23" s="5"/>
-      <c r="F23" s="6"/>
+      <c r="F23" s="22"/>
       <c r="G23" s="6"/>
       <c r="H23" s="8"/>
     </row>
@@ -1014,11 +1522,11 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B24" s="15"/>
+      <c r="B24" s="14"/>
       <c r="C24" s="10"/>
-      <c r="D24" s="8"/>
+      <c r="D24" s="18"/>
       <c r="E24" s="5"/>
-      <c r="F24" s="6"/>
+      <c r="F24" s="22"/>
       <c r="G24" s="6"/>
       <c r="H24" s="8"/>
     </row>
@@ -1027,11 +1535,11 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B25" s="15"/>
+      <c r="B25" s="14"/>
       <c r="C25" s="10"/>
-      <c r="D25" s="8"/>
+      <c r="D25" s="18"/>
       <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
+      <c r="F25" s="22"/>
       <c r="G25" s="6"/>
       <c r="H25" s="8"/>
     </row>
@@ -1040,11 +1548,11 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B26" s="15"/>
+      <c r="B26" s="14"/>
       <c r="C26" s="10"/>
-      <c r="D26" s="8"/>
+      <c r="D26" s="18"/>
       <c r="E26" s="5"/>
-      <c r="F26" s="6"/>
+      <c r="F26" s="22"/>
       <c r="G26" s="6"/>
       <c r="H26" s="8"/>
     </row>
@@ -1053,11 +1561,11 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B27" s="15"/>
+      <c r="B27" s="14"/>
       <c r="C27" s="10"/>
-      <c r="D27" s="8"/>
+      <c r="D27" s="18"/>
       <c r="E27" s="5"/>
-      <c r="F27" s="6"/>
+      <c r="F27" s="22"/>
       <c r="G27" s="6"/>
       <c r="H27" s="8"/>
     </row>
@@ -1066,11 +1574,11 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B28" s="15"/>
+      <c r="B28" s="14"/>
       <c r="C28" s="10"/>
-      <c r="D28" s="8"/>
+      <c r="D28" s="18"/>
       <c r="E28" s="5"/>
-      <c r="F28" s="6"/>
+      <c r="F28" s="22"/>
       <c r="G28" s="6"/>
       <c r="H28" s="8"/>
     </row>
@@ -1079,11 +1587,11 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B29" s="15"/>
+      <c r="B29" s="14"/>
       <c r="C29" s="10"/>
-      <c r="D29" s="8"/>
+      <c r="D29" s="18"/>
       <c r="E29" s="5"/>
-      <c r="F29" s="6"/>
+      <c r="F29" s="22"/>
       <c r="G29" s="6"/>
       <c r="H29" s="8"/>
     </row>
@@ -1092,11 +1600,11 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B30" s="15"/>
+      <c r="B30" s="14"/>
       <c r="C30" s="10"/>
-      <c r="D30" s="8"/>
+      <c r="D30" s="18"/>
       <c r="E30" s="5"/>
-      <c r="F30" s="6"/>
+      <c r="F30" s="22"/>
       <c r="G30" s="6"/>
       <c r="H30" s="8"/>
     </row>
@@ -1105,11 +1613,11 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B31" s="15"/>
+      <c r="B31" s="14"/>
       <c r="C31" s="10"/>
-      <c r="D31" s="8"/>
+      <c r="D31" s="18"/>
       <c r="E31" s="5"/>
-      <c r="F31" s="6"/>
+      <c r="F31" s="22"/>
       <c r="G31" s="6"/>
       <c r="H31" s="8"/>
     </row>
@@ -1118,11 +1626,11 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B32" s="15"/>
+      <c r="B32" s="14"/>
       <c r="C32" s="10"/>
-      <c r="D32" s="8"/>
+      <c r="D32" s="18"/>
       <c r="E32" s="5"/>
-      <c r="F32" s="6"/>
+      <c r="F32" s="22"/>
       <c r="G32" s="6"/>
       <c r="H32" s="8"/>
     </row>
@@ -1131,11 +1639,11 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B33" s="15"/>
+      <c r="B33" s="14"/>
       <c r="C33" s="10"/>
-      <c r="D33" s="8"/>
+      <c r="D33" s="18"/>
       <c r="E33" s="5"/>
-      <c r="F33" s="6"/>
+      <c r="F33" s="22"/>
       <c r="G33" s="6"/>
       <c r="H33" s="8"/>
     </row>
@@ -1144,11 +1652,11 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B34" s="15"/>
+      <c r="B34" s="14"/>
       <c r="C34" s="10"/>
-      <c r="D34" s="8"/>
+      <c r="D34" s="18"/>
       <c r="E34" s="5"/>
-      <c r="F34" s="6"/>
+      <c r="F34" s="22"/>
       <c r="G34" s="6"/>
       <c r="H34" s="8"/>
     </row>
@@ -1157,11 +1665,11 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B35" s="15"/>
+      <c r="B35" s="14"/>
       <c r="C35" s="10"/>
-      <c r="D35" s="8"/>
+      <c r="D35" s="18"/>
       <c r="E35" s="5"/>
-      <c r="F35" s="6"/>
+      <c r="F35" s="22"/>
       <c r="G35" s="6"/>
       <c r="H35" s="8"/>
     </row>
@@ -1170,11 +1678,11 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B36" s="15"/>
+      <c r="B36" s="14"/>
       <c r="C36" s="10"/>
-      <c r="D36" s="8"/>
+      <c r="D36" s="18"/>
       <c r="E36" s="5"/>
-      <c r="F36" s="6"/>
+      <c r="F36" s="22"/>
       <c r="G36" s="6"/>
       <c r="H36" s="8"/>
     </row>
@@ -1183,11 +1691,11 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B37" s="15"/>
+      <c r="B37" s="14"/>
       <c r="C37" s="10"/>
-      <c r="D37" s="8"/>
+      <c r="D37" s="18"/>
       <c r="E37" s="5"/>
-      <c r="F37" s="6"/>
+      <c r="F37" s="22"/>
       <c r="G37" s="6"/>
       <c r="H37" s="8"/>
     </row>
@@ -1196,11 +1704,11 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B38" s="15"/>
+      <c r="B38" s="14"/>
       <c r="C38" s="10"/>
-      <c r="D38" s="8"/>
+      <c r="D38" s="18"/>
       <c r="E38" s="5"/>
-      <c r="F38" s="6"/>
+      <c r="F38" s="22"/>
       <c r="G38" s="6"/>
       <c r="H38" s="8"/>
     </row>
@@ -1209,11 +1717,11 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B39" s="15"/>
+      <c r="B39" s="14"/>
       <c r="C39" s="10"/>
-      <c r="D39" s="8"/>
+      <c r="D39" s="18"/>
       <c r="E39" s="5"/>
-      <c r="F39" s="6"/>
+      <c r="F39" s="22"/>
       <c r="G39" s="6"/>
       <c r="H39" s="8"/>
     </row>
@@ -1222,11 +1730,11 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B40" s="15"/>
+      <c r="B40" s="14"/>
       <c r="C40" s="10"/>
-      <c r="D40" s="8"/>
+      <c r="D40" s="18"/>
       <c r="E40" s="5"/>
-      <c r="F40" s="6"/>
+      <c r="F40" s="22"/>
       <c r="G40" s="6"/>
       <c r="H40" s="8"/>
     </row>
@@ -1235,11 +1743,11 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B41" s="15"/>
+      <c r="B41" s="14"/>
       <c r="C41" s="10"/>
-      <c r="D41" s="8"/>
+      <c r="D41" s="18"/>
       <c r="E41" s="5"/>
-      <c r="F41" s="6"/>
+      <c r="F41" s="22"/>
       <c r="G41" s="6"/>
       <c r="H41" s="8"/>
     </row>
@@ -1248,11 +1756,11 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B42" s="15"/>
+      <c r="B42" s="14"/>
       <c r="C42" s="10"/>
-      <c r="D42" s="8"/>
+      <c r="D42" s="18"/>
       <c r="E42" s="5"/>
-      <c r="F42" s="6"/>
+      <c r="F42" s="22"/>
       <c r="G42" s="6"/>
       <c r="H42" s="8"/>
     </row>
@@ -1261,11 +1769,11 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B43" s="15"/>
+      <c r="B43" s="14"/>
       <c r="C43" s="10"/>
-      <c r="D43" s="8"/>
+      <c r="D43" s="18"/>
       <c r="E43" s="5"/>
-      <c r="F43" s="6"/>
+      <c r="F43" s="22"/>
       <c r="G43" s="6"/>
       <c r="H43" s="8"/>
     </row>
@@ -1274,11 +1782,11 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B44" s="15"/>
+      <c r="B44" s="14"/>
       <c r="C44" s="10"/>
-      <c r="D44" s="8"/>
+      <c r="D44" s="18"/>
       <c r="E44" s="5"/>
-      <c r="F44" s="6"/>
+      <c r="F44" s="22"/>
       <c r="G44" s="6"/>
       <c r="H44" s="8"/>
     </row>
@@ -1287,11 +1795,11 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B45" s="15"/>
+      <c r="B45" s="14"/>
       <c r="C45" s="10"/>
-      <c r="D45" s="8"/>
+      <c r="D45" s="18"/>
       <c r="E45" s="5"/>
-      <c r="F45" s="6"/>
+      <c r="F45" s="22"/>
       <c r="G45" s="6"/>
       <c r="H45" s="8"/>
     </row>
@@ -1300,11 +1808,11 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B46" s="15"/>
+      <c r="B46" s="14"/>
       <c r="C46" s="10"/>
-      <c r="D46" s="8"/>
+      <c r="D46" s="18"/>
       <c r="E46" s="5"/>
-      <c r="F46" s="6"/>
+      <c r="F46" s="22"/>
       <c r="G46" s="6"/>
       <c r="H46" s="8"/>
     </row>
@@ -1313,11 +1821,11 @@
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B47" s="15"/>
+      <c r="B47" s="14"/>
       <c r="C47" s="10"/>
-      <c r="D47" s="8"/>
+      <c r="D47" s="18"/>
       <c r="E47" s="5"/>
-      <c r="F47" s="6"/>
+      <c r="F47" s="22"/>
       <c r="G47" s="6"/>
       <c r="H47" s="8"/>
     </row>
@@ -1326,11 +1834,11 @@
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B48" s="15"/>
+      <c r="B48" s="14"/>
       <c r="C48" s="10"/>
-      <c r="D48" s="8"/>
+      <c r="D48" s="18"/>
       <c r="E48" s="5"/>
-      <c r="F48" s="6"/>
+      <c r="F48" s="22"/>
       <c r="G48" s="6"/>
       <c r="H48" s="8"/>
     </row>
@@ -1339,11 +1847,11 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B49" s="15"/>
+      <c r="B49" s="14"/>
       <c r="C49" s="10"/>
-      <c r="D49" s="8"/>
+      <c r="D49" s="18"/>
       <c r="E49" s="5"/>
-      <c r="F49" s="6"/>
+      <c r="F49" s="22"/>
       <c r="G49" s="6"/>
       <c r="H49" s="8"/>
     </row>
@@ -1352,11 +1860,11 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B50" s="15"/>
+      <c r="B50" s="14"/>
       <c r="C50" s="10"/>
-      <c r="D50" s="8"/>
+      <c r="D50" s="18"/>
       <c r="E50" s="5"/>
-      <c r="F50" s="6"/>
+      <c r="F50" s="22"/>
       <c r="G50" s="6"/>
       <c r="H50" s="8"/>
     </row>
@@ -1365,11 +1873,11 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B51" s="15"/>
+      <c r="B51" s="14"/>
       <c r="C51" s="10"/>
-      <c r="D51" s="8"/>
+      <c r="D51" s="18"/>
       <c r="E51" s="5"/>
-      <c r="F51" s="6"/>
+      <c r="F51" s="22"/>
       <c r="G51" s="6"/>
       <c r="H51" s="8"/>
     </row>
@@ -1378,11 +1886,11 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B52" s="15"/>
+      <c r="B52" s="14"/>
       <c r="C52" s="10"/>
-      <c r="D52" s="8"/>
+      <c r="D52" s="18"/>
       <c r="E52" s="5"/>
-      <c r="F52" s="6"/>
+      <c r="F52" s="22"/>
       <c r="G52" s="6"/>
       <c r="H52" s="8"/>
     </row>
@@ -1391,11 +1899,11 @@
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B53" s="15"/>
+      <c r="B53" s="14"/>
       <c r="C53" s="10"/>
-      <c r="D53" s="8"/>
+      <c r="D53" s="18"/>
       <c r="E53" s="5"/>
-      <c r="F53" s="6"/>
+      <c r="F53" s="22"/>
       <c r="G53" s="6"/>
       <c r="H53" s="8"/>
     </row>
@@ -1404,11 +1912,11 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B54" s="15"/>
+      <c r="B54" s="14"/>
       <c r="C54" s="10"/>
-      <c r="D54" s="8"/>
+      <c r="D54" s="18"/>
       <c r="E54" s="5"/>
-      <c r="F54" s="6"/>
+      <c r="F54" s="22"/>
       <c r="G54" s="6"/>
       <c r="H54" s="8"/>
     </row>
@@ -1417,11 +1925,11 @@
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B55" s="15"/>
+      <c r="B55" s="14"/>
       <c r="C55" s="10"/>
-      <c r="D55" s="8"/>
+      <c r="D55" s="18"/>
       <c r="E55" s="5"/>
-      <c r="F55" s="6"/>
+      <c r="F55" s="22"/>
       <c r="G55" s="6"/>
       <c r="H55" s="8"/>
     </row>
@@ -1430,11 +1938,11 @@
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B56" s="15"/>
+      <c r="B56" s="14"/>
       <c r="C56" s="10"/>
-      <c r="D56" s="8"/>
+      <c r="D56" s="18"/>
       <c r="E56" s="5"/>
-      <c r="F56" s="6"/>
+      <c r="F56" s="22"/>
       <c r="G56" s="6"/>
       <c r="H56" s="8"/>
     </row>
@@ -1443,11 +1951,11 @@
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B57" s="15"/>
+      <c r="B57" s="14"/>
       <c r="C57" s="10"/>
-      <c r="D57" s="8"/>
+      <c r="D57" s="18"/>
       <c r="E57" s="5"/>
-      <c r="F57" s="6"/>
+      <c r="F57" s="22"/>
       <c r="G57" s="6"/>
       <c r="H57" s="8"/>
     </row>
@@ -1456,11 +1964,11 @@
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B58" s="15"/>
+      <c r="B58" s="14"/>
       <c r="C58" s="10"/>
-      <c r="D58" s="8"/>
+      <c r="D58" s="18"/>
       <c r="E58" s="5"/>
-      <c r="F58" s="6"/>
+      <c r="F58" s="22"/>
       <c r="G58" s="6"/>
       <c r="H58" s="8"/>
     </row>
@@ -1469,11 +1977,11 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="B59" s="15"/>
+      <c r="B59" s="14"/>
       <c r="C59" s="10"/>
-      <c r="D59" s="8"/>
+      <c r="D59" s="18"/>
       <c r="E59" s="5"/>
-      <c r="F59" s="6"/>
+      <c r="F59" s="22"/>
       <c r="G59" s="6"/>
       <c r="H59" s="8"/>
     </row>
@@ -1482,11 +1990,11 @@
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="B60" s="15"/>
+      <c r="B60" s="14"/>
       <c r="C60" s="10"/>
-      <c r="D60" s="8"/>
+      <c r="D60" s="18"/>
       <c r="E60" s="5"/>
-      <c r="F60" s="6"/>
+      <c r="F60" s="22"/>
       <c r="G60" s="6"/>
       <c r="H60" s="8"/>
     </row>
@@ -1495,11 +2003,11 @@
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B61" s="15"/>
+      <c r="B61" s="14"/>
       <c r="C61" s="10"/>
-      <c r="D61" s="8"/>
+      <c r="D61" s="18"/>
       <c r="E61" s="5"/>
-      <c r="F61" s="6"/>
+      <c r="F61" s="22"/>
       <c r="G61" s="6"/>
       <c r="H61" s="8"/>
     </row>
@@ -1508,11 +2016,11 @@
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="B62" s="15"/>
+      <c r="B62" s="14"/>
       <c r="C62" s="10"/>
-      <c r="D62" s="8"/>
+      <c r="D62" s="18"/>
       <c r="E62" s="5"/>
-      <c r="F62" s="6"/>
+      <c r="F62" s="22"/>
       <c r="G62" s="6"/>
       <c r="H62" s="8"/>
     </row>
@@ -1521,11 +2029,11 @@
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="B63" s="15"/>
+      <c r="B63" s="14"/>
       <c r="C63" s="10"/>
-      <c r="D63" s="8"/>
+      <c r="D63" s="18"/>
       <c r="E63" s="5"/>
-      <c r="F63" s="6"/>
+      <c r="F63" s="22"/>
       <c r="G63" s="6"/>
       <c r="H63" s="8"/>
     </row>
@@ -1534,11 +2042,11 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="B64" s="15"/>
+      <c r="B64" s="14"/>
       <c r="C64" s="10"/>
-      <c r="D64" s="8"/>
+      <c r="D64" s="18"/>
       <c r="E64" s="5"/>
-      <c r="F64" s="6"/>
+      <c r="F64" s="22"/>
       <c r="G64" s="6"/>
       <c r="H64" s="8"/>
     </row>
@@ -1547,11 +2055,11 @@
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="B65" s="15"/>
+      <c r="B65" s="14"/>
       <c r="C65" s="10"/>
-      <c r="D65" s="8"/>
+      <c r="D65" s="18"/>
       <c r="E65" s="5"/>
-      <c r="F65" s="6"/>
+      <c r="F65" s="22"/>
       <c r="G65" s="6"/>
       <c r="H65" s="8"/>
     </row>
@@ -1560,11 +2068,11 @@
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="B66" s="15"/>
+      <c r="B66" s="14"/>
       <c r="C66" s="10"/>
-      <c r="D66" s="8"/>
+      <c r="D66" s="18"/>
       <c r="E66" s="5"/>
-      <c r="F66" s="6"/>
+      <c r="F66" s="22"/>
       <c r="G66" s="6"/>
       <c r="H66" s="8"/>
     </row>
@@ -1573,11 +2081,11 @@
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="B67" s="15"/>
+      <c r="B67" s="14"/>
       <c r="C67" s="10"/>
-      <c r="D67" s="8"/>
+      <c r="D67" s="18"/>
       <c r="E67" s="5"/>
-      <c r="F67" s="6"/>
+      <c r="F67" s="22"/>
       <c r="G67" s="6"/>
       <c r="H67" s="8"/>
     </row>
@@ -1586,11 +2094,11 @@
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="B68" s="15"/>
+      <c r="B68" s="14"/>
       <c r="C68" s="10"/>
-      <c r="D68" s="8"/>
+      <c r="D68" s="18"/>
       <c r="E68" s="5"/>
-      <c r="F68" s="6"/>
+      <c r="F68" s="22"/>
       <c r="G68" s="6"/>
       <c r="H68" s="8"/>
     </row>
@@ -1599,11 +2107,11 @@
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="B69" s="15"/>
+      <c r="B69" s="14"/>
       <c r="C69" s="10"/>
-      <c r="D69" s="8"/>
+      <c r="D69" s="18"/>
       <c r="E69" s="5"/>
-      <c r="F69" s="6"/>
+      <c r="F69" s="22"/>
       <c r="G69" s="6"/>
       <c r="H69" s="8"/>
     </row>
@@ -1612,11 +2120,11 @@
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="B70" s="15"/>
+      <c r="B70" s="14"/>
       <c r="C70" s="10"/>
-      <c r="D70" s="8"/>
+      <c r="D70" s="18"/>
       <c r="E70" s="5"/>
-      <c r="F70" s="6"/>
+      <c r="F70" s="22"/>
       <c r="G70" s="6"/>
       <c r="H70" s="8"/>
     </row>
@@ -1625,11 +2133,11 @@
         <f t="shared" ref="A71:A104" si="1">ROW()-4</f>
         <v>67</v>
       </c>
-      <c r="B71" s="15"/>
+      <c r="B71" s="14"/>
       <c r="C71" s="10"/>
-      <c r="D71" s="8"/>
+      <c r="D71" s="18"/>
       <c r="E71" s="5"/>
-      <c r="F71" s="6"/>
+      <c r="F71" s="22"/>
       <c r="G71" s="6"/>
       <c r="H71" s="8"/>
     </row>
@@ -1638,11 +2146,11 @@
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="B72" s="15"/>
+      <c r="B72" s="14"/>
       <c r="C72" s="10"/>
-      <c r="D72" s="8"/>
+      <c r="D72" s="18"/>
       <c r="E72" s="5"/>
-      <c r="F72" s="6"/>
+      <c r="F72" s="22"/>
       <c r="G72" s="6"/>
       <c r="H72" s="8"/>
     </row>
@@ -1651,11 +2159,11 @@
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="B73" s="15"/>
+      <c r="B73" s="14"/>
       <c r="C73" s="10"/>
-      <c r="D73" s="8"/>
+      <c r="D73" s="18"/>
       <c r="E73" s="5"/>
-      <c r="F73" s="6"/>
+      <c r="F73" s="22"/>
       <c r="G73" s="6"/>
       <c r="H73" s="8"/>
     </row>
@@ -1664,11 +2172,11 @@
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="B74" s="15"/>
+      <c r="B74" s="14"/>
       <c r="C74" s="10"/>
-      <c r="D74" s="8"/>
+      <c r="D74" s="18"/>
       <c r="E74" s="5"/>
-      <c r="F74" s="6"/>
+      <c r="F74" s="22"/>
       <c r="G74" s="6"/>
       <c r="H74" s="8"/>
     </row>
@@ -1677,11 +2185,11 @@
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="B75" s="15"/>
+      <c r="B75" s="14"/>
       <c r="C75" s="10"/>
-      <c r="D75" s="8"/>
+      <c r="D75" s="18"/>
       <c r="E75" s="5"/>
-      <c r="F75" s="6"/>
+      <c r="F75" s="22"/>
       <c r="G75" s="6"/>
       <c r="H75" s="8"/>
     </row>
@@ -1690,11 +2198,11 @@
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="B76" s="15"/>
+      <c r="B76" s="14"/>
       <c r="C76" s="10"/>
-      <c r="D76" s="8"/>
+      <c r="D76" s="18"/>
       <c r="E76" s="5"/>
-      <c r="F76" s="6"/>
+      <c r="F76" s="22"/>
       <c r="G76" s="6"/>
       <c r="H76" s="8"/>
     </row>
@@ -1703,11 +2211,11 @@
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="B77" s="15"/>
+      <c r="B77" s="14"/>
       <c r="C77" s="10"/>
-      <c r="D77" s="8"/>
+      <c r="D77" s="18"/>
       <c r="E77" s="5"/>
-      <c r="F77" s="6"/>
+      <c r="F77" s="22"/>
       <c r="G77" s="6"/>
       <c r="H77" s="8"/>
     </row>
@@ -1716,11 +2224,11 @@
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="B78" s="15"/>
+      <c r="B78" s="14"/>
       <c r="C78" s="10"/>
-      <c r="D78" s="8"/>
+      <c r="D78" s="18"/>
       <c r="E78" s="5"/>
-      <c r="F78" s="6"/>
+      <c r="F78" s="22"/>
       <c r="G78" s="6"/>
       <c r="H78" s="8"/>
     </row>
@@ -1729,11 +2237,11 @@
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="B79" s="15"/>
+      <c r="B79" s="14"/>
       <c r="C79" s="10"/>
-      <c r="D79" s="8"/>
+      <c r="D79" s="18"/>
       <c r="E79" s="5"/>
-      <c r="F79" s="6"/>
+      <c r="F79" s="22"/>
       <c r="G79" s="6"/>
       <c r="H79" s="8"/>
     </row>
@@ -1742,11 +2250,11 @@
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="B80" s="15"/>
+      <c r="B80" s="14"/>
       <c r="C80" s="10"/>
-      <c r="D80" s="8"/>
+      <c r="D80" s="18"/>
       <c r="E80" s="5"/>
-      <c r="F80" s="6"/>
+      <c r="F80" s="22"/>
       <c r="G80" s="6"/>
       <c r="H80" s="8"/>
     </row>
@@ -1755,11 +2263,11 @@
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
-      <c r="B81" s="15"/>
+      <c r="B81" s="14"/>
       <c r="C81" s="10"/>
-      <c r="D81" s="8"/>
+      <c r="D81" s="18"/>
       <c r="E81" s="5"/>
-      <c r="F81" s="6"/>
+      <c r="F81" s="22"/>
       <c r="G81" s="6"/>
       <c r="H81" s="8"/>
     </row>
@@ -1768,11 +2276,11 @@
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
-      <c r="B82" s="15"/>
+      <c r="B82" s="14"/>
       <c r="C82" s="10"/>
-      <c r="D82" s="8"/>
+      <c r="D82" s="18"/>
       <c r="E82" s="5"/>
-      <c r="F82" s="6"/>
+      <c r="F82" s="22"/>
       <c r="G82" s="6"/>
       <c r="H82" s="8"/>
     </row>
@@ -1781,11 +2289,11 @@
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
-      <c r="B83" s="15"/>
+      <c r="B83" s="14"/>
       <c r="C83" s="10"/>
-      <c r="D83" s="8"/>
+      <c r="D83" s="18"/>
       <c r="E83" s="5"/>
-      <c r="F83" s="6"/>
+      <c r="F83" s="22"/>
       <c r="G83" s="6"/>
       <c r="H83" s="8"/>
     </row>
@@ -1794,11 +2302,11 @@
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="B84" s="15"/>
+      <c r="B84" s="14"/>
       <c r="C84" s="10"/>
-      <c r="D84" s="8"/>
+      <c r="D84" s="18"/>
       <c r="E84" s="5"/>
-      <c r="F84" s="6"/>
+      <c r="F84" s="22"/>
       <c r="G84" s="6"/>
       <c r="H84" s="8"/>
     </row>
@@ -1807,11 +2315,11 @@
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
-      <c r="B85" s="15"/>
+      <c r="B85" s="14"/>
       <c r="C85" s="10"/>
-      <c r="D85" s="8"/>
+      <c r="D85" s="18"/>
       <c r="E85" s="5"/>
-      <c r="F85" s="6"/>
+      <c r="F85" s="22"/>
       <c r="G85" s="6"/>
       <c r="H85" s="8"/>
     </row>
@@ -1820,11 +2328,11 @@
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
-      <c r="B86" s="15"/>
+      <c r="B86" s="14"/>
       <c r="C86" s="10"/>
-      <c r="D86" s="8"/>
+      <c r="D86" s="18"/>
       <c r="E86" s="5"/>
-      <c r="F86" s="6"/>
+      <c r="F86" s="22"/>
       <c r="G86" s="6"/>
       <c r="H86" s="8"/>
     </row>
@@ -1833,11 +2341,11 @@
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
-      <c r="B87" s="15"/>
+      <c r="B87" s="14"/>
       <c r="C87" s="10"/>
-      <c r="D87" s="8"/>
+      <c r="D87" s="18"/>
       <c r="E87" s="5"/>
-      <c r="F87" s="6"/>
+      <c r="F87" s="22"/>
       <c r="G87" s="6"/>
       <c r="H87" s="8"/>
     </row>
@@ -1846,11 +2354,11 @@
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-      <c r="B88" s="15"/>
+      <c r="B88" s="14"/>
       <c r="C88" s="10"/>
-      <c r="D88" s="8"/>
+      <c r="D88" s="18"/>
       <c r="E88" s="5"/>
-      <c r="F88" s="6"/>
+      <c r="F88" s="22"/>
       <c r="G88" s="6"/>
       <c r="H88" s="8"/>
     </row>
@@ -1859,11 +2367,11 @@
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="B89" s="15"/>
+      <c r="B89" s="14"/>
       <c r="C89" s="10"/>
-      <c r="D89" s="8"/>
+      <c r="D89" s="18"/>
       <c r="E89" s="5"/>
-      <c r="F89" s="6"/>
+      <c r="F89" s="22"/>
       <c r="G89" s="6"/>
       <c r="H89" s="8"/>
     </row>
@@ -1872,11 +2380,11 @@
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
-      <c r="B90" s="15"/>
+      <c r="B90" s="14"/>
       <c r="C90" s="10"/>
-      <c r="D90" s="8"/>
+      <c r="D90" s="18"/>
       <c r="E90" s="5"/>
-      <c r="F90" s="6"/>
+      <c r="F90" s="22"/>
       <c r="G90" s="6"/>
       <c r="H90" s="8"/>
     </row>
@@ -1885,11 +2393,11 @@
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
-      <c r="B91" s="15"/>
+      <c r="B91" s="14"/>
       <c r="C91" s="10"/>
-      <c r="D91" s="8"/>
+      <c r="D91" s="18"/>
       <c r="E91" s="5"/>
-      <c r="F91" s="6"/>
+      <c r="F91" s="22"/>
       <c r="G91" s="6"/>
       <c r="H91" s="8"/>
     </row>
@@ -1898,11 +2406,11 @@
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
-      <c r="B92" s="15"/>
+      <c r="B92" s="14"/>
       <c r="C92" s="10"/>
-      <c r="D92" s="8"/>
+      <c r="D92" s="18"/>
       <c r="E92" s="5"/>
-      <c r="F92" s="6"/>
+      <c r="F92" s="22"/>
       <c r="G92" s="6"/>
       <c r="H92" s="8"/>
     </row>
@@ -1911,11 +2419,11 @@
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
-      <c r="B93" s="15"/>
+      <c r="B93" s="14"/>
       <c r="C93" s="10"/>
-      <c r="D93" s="8"/>
+      <c r="D93" s="18"/>
       <c r="E93" s="5"/>
-      <c r="F93" s="6"/>
+      <c r="F93" s="22"/>
       <c r="G93" s="6"/>
       <c r="H93" s="8"/>
     </row>
@@ -1924,11 +2432,11 @@
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="B94" s="15"/>
+      <c r="B94" s="14"/>
       <c r="C94" s="10"/>
-      <c r="D94" s="8"/>
+      <c r="D94" s="18"/>
       <c r="E94" s="5"/>
-      <c r="F94" s="6"/>
+      <c r="F94" s="22"/>
       <c r="G94" s="6"/>
       <c r="H94" s="8"/>
     </row>
@@ -1937,11 +2445,11 @@
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="B95" s="15"/>
+      <c r="B95" s="14"/>
       <c r="C95" s="10"/>
-      <c r="D95" s="8"/>
+      <c r="D95" s="18"/>
       <c r="E95" s="5"/>
-      <c r="F95" s="6"/>
+      <c r="F95" s="22"/>
       <c r="G95" s="6"/>
       <c r="H95" s="8"/>
     </row>
@@ -1950,11 +2458,11 @@
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
-      <c r="B96" s="15"/>
+      <c r="B96" s="14"/>
       <c r="C96" s="10"/>
-      <c r="D96" s="8"/>
+      <c r="D96" s="18"/>
       <c r="E96" s="5"/>
-      <c r="F96" s="6"/>
+      <c r="F96" s="22"/>
       <c r="G96" s="6"/>
       <c r="H96" s="8"/>
     </row>
@@ -1963,11 +2471,11 @@
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
-      <c r="B97" s="15"/>
+      <c r="B97" s="14"/>
       <c r="C97" s="10"/>
-      <c r="D97" s="8"/>
+      <c r="D97" s="18"/>
       <c r="E97" s="5"/>
-      <c r="F97" s="6"/>
+      <c r="F97" s="22"/>
       <c r="G97" s="6"/>
       <c r="H97" s="8"/>
     </row>
@@ -1976,11 +2484,11 @@
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
-      <c r="B98" s="15"/>
+      <c r="B98" s="14"/>
       <c r="C98" s="10"/>
-      <c r="D98" s="8"/>
+      <c r="D98" s="18"/>
       <c r="E98" s="5"/>
-      <c r="F98" s="6"/>
+      <c r="F98" s="22"/>
       <c r="G98" s="6"/>
       <c r="H98" s="8"/>
     </row>
@@ -1989,11 +2497,11 @@
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="B99" s="15"/>
+      <c r="B99" s="14"/>
       <c r="C99" s="10"/>
-      <c r="D99" s="8"/>
+      <c r="D99" s="18"/>
       <c r="E99" s="5"/>
-      <c r="F99" s="6"/>
+      <c r="F99" s="22"/>
       <c r="G99" s="6"/>
       <c r="H99" s="8"/>
     </row>
@@ -2002,11 +2510,11 @@
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
-      <c r="B100" s="15"/>
+      <c r="B100" s="14"/>
       <c r="C100" s="10"/>
-      <c r="D100" s="8"/>
+      <c r="D100" s="18"/>
       <c r="E100" s="5"/>
-      <c r="F100" s="6"/>
+      <c r="F100" s="22"/>
       <c r="G100" s="6"/>
       <c r="H100" s="8"/>
     </row>
@@ -2015,11 +2523,11 @@
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="B101" s="15"/>
+      <c r="B101" s="14"/>
       <c r="C101" s="10"/>
-      <c r="D101" s="8"/>
+      <c r="D101" s="18"/>
       <c r="E101" s="5"/>
-      <c r="F101" s="6"/>
+      <c r="F101" s="22"/>
       <c r="G101" s="6"/>
       <c r="H101" s="8"/>
     </row>
@@ -2028,11 +2536,11 @@
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
-      <c r="B102" s="15"/>
+      <c r="B102" s="14"/>
       <c r="C102" s="10"/>
-      <c r="D102" s="8"/>
+      <c r="D102" s="18"/>
       <c r="E102" s="5"/>
-      <c r="F102" s="6"/>
+      <c r="F102" s="22"/>
       <c r="G102" s="6"/>
       <c r="H102" s="8"/>
     </row>
@@ -2041,11 +2549,11 @@
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
-      <c r="B103" s="15"/>
+      <c r="B103" s="14"/>
       <c r="C103" s="10"/>
-      <c r="D103" s="8"/>
+      <c r="D103" s="18"/>
       <c r="E103" s="5"/>
-      <c r="F103" s="6"/>
+      <c r="F103" s="22"/>
       <c r="G103" s="6"/>
       <c r="H103" s="8"/>
     </row>
@@ -2054,11 +2562,11 @@
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="B104" s="15"/>
+      <c r="B104" s="14"/>
       <c r="C104" s="10"/>
-      <c r="D104" s="8"/>
+      <c r="D104" s="18"/>
       <c r="E104" s="5"/>
-      <c r="F104" s="6"/>
+      <c r="F104" s="22"/>
       <c r="G104" s="6"/>
       <c r="H104" s="8"/>
     </row>
@@ -2076,4 +2584,569 @@
     <oddFooter>&amp;C&amp;P / &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF7FED69-89F8-4640-A66E-20A999517425}">
+  <dimension ref="A1:N48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.125" customWidth="1"/>
+    <col min="4" max="4" width="5.375" style="40" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.5" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.625" customWidth="1"/>
+    <col min="7" max="7" width="11.125" style="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.625" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.75" customWidth="1"/>
+    <col min="10" max="10" width="13.625" style="40" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.5" style="35" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.5" customWidth="1"/>
+    <col min="13" max="13" width="9" style="40"/>
+    <col min="14" max="14" width="9" style="35"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="N1" s="31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="32">
+        <v>0</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="32">
+        <v>0</v>
+      </c>
+      <c r="J2" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" s="32">
+        <v>0</v>
+      </c>
+      <c r="M2" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="N2" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="34">
+        <v>1</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="33">
+        <v>1</v>
+      </c>
+      <c r="J3" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3" s="34">
+        <v>1</v>
+      </c>
+      <c r="M3" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="N3" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" s="33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" s="33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" s="33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="H9" s="33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" s="33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="H11" s="33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="H12" s="33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="G13" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="H13" s="33">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="H14" s="33">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="H15" s="33">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="H16" s="33">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="7:8">
+      <c r="G17" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="H17" s="33">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="7:8">
+      <c r="G18" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="H18" s="33">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="7:8">
+      <c r="G19" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="H19" s="33">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="7:8">
+      <c r="G20" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="H20" s="33">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="7:8">
+      <c r="G21" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="H21" s="33">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="7:8">
+      <c r="G22" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="H22" s="33">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="7:8">
+      <c r="G23" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="H23" s="33">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="7:8">
+      <c r="G24" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="H24" s="33">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="7:8">
+      <c r="G25" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="H25" s="33">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="7:8">
+      <c r="G26" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="H26" s="33">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="7:8">
+      <c r="G27" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="H27" s="33">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="7:8">
+      <c r="G28" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="H28" s="33">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="7:8">
+      <c r="G29" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="H29" s="33">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="7:8">
+      <c r="G30" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="H30" s="33">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="7:8">
+      <c r="G31" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="H31" s="33">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="7:8">
+      <c r="G32" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="H32" s="33">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="7:8">
+      <c r="G33" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="H33" s="33">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="7:8">
+      <c r="G34" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="H34" s="33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="7:8">
+      <c r="G35" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="H35" s="33">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="7:8">
+      <c r="G36" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="H36" s="33">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="7:8">
+      <c r="G37" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="H37" s="33">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="7:8">
+      <c r="G38" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="H38" s="33">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="7:8">
+      <c r="G39" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="H39" s="33">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="7:8">
+      <c r="G40" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="H40" s="33">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="7:8">
+      <c r="G41" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="H41" s="33">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="7:8">
+      <c r="G42" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="H42" s="33">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="7:8">
+      <c r="G43" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="H43" s="33">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="7:8">
+      <c r="G44" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="H44" s="33">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="7:8">
+      <c r="G45" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="H45" s="33">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="7:8">
+      <c r="G46" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="H46" s="33">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="7:8">
+      <c r="G47" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="H47" s="33">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="7:8">
+      <c r="G48" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="H48" s="34">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/test_case/integration-test-case.xlsx
+++ b/test_case/integration-test-case.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26412"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\plus_pm_jp\wp-content\uploads\blog\test-case-excel-integration-test\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59C0A035-045A-427B-92E8-C20BADE986F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0B5520C-B29A-45A4-A7ED-CBD5C78B531D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2130" yWindow="2790" windowWidth="22725" windowHeight="12345" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2130" yWindow="2790" windowWidth="22725" windowHeight="12345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="結合テスト" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="146">
   <si>
     <t>テストID</t>
   </si>
@@ -141,8 +141,8 @@
     <t>確認画面から完了画面へ遷移前に、登録エラーとなった場合、登録エラー画面へ遷移できる</t>
   </si>
   <si>
-    <t>データベース側で登録エラーとなる設定が必要
-1.【登録する】ボタンをクリックする</t>
+    <t>1.XAMPP内、MySQLの【Stop】ボタンをクリックする
+2.【登録する】ボタンをクリックする</t>
   </si>
   <si>
     <t>登録エラー画面が表示される</t>
@@ -158,6 +158,10 @@
   </si>
   <si>
     <t>登録エラー画面からTOP画面へ遷移できる</t>
+  </si>
+  <si>
+    <t>1.XAMPP内、MySQLの【Start】ボタンをクリックする
+2.【前に戻る】ボタンをクリックする</t>
   </si>
   <si>
     <t>入力データの保持</t>
@@ -200,7 +204,7 @@
 6.「gender」＝「0」
 7.「postal_code」＝「1234567」
 8.「prefecture」＝「16」
-9.「address_!」＝「新宿区西新宿」
+9.「address_1」＝「新宿区西新宿」
 10.「address_2」＝「1-1-1」
 11.「authority」＝「0」
 </t>
@@ -1250,8 +1254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1BE540C-CFE4-46E4-83A9-C3F67209797D}">
   <dimension ref="A1:M104"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1383,7 +1387,7 @@
         <v>17</v>
       </c>
       <c r="J6" s="44">
-        <v>45034</v>
+        <v>45033</v>
       </c>
       <c r="K6" s="45" t="s">
         <v>18</v>
@@ -1419,7 +1423,7 @@
         <v>17</v>
       </c>
       <c r="J7" s="44">
-        <v>45035</v>
+        <v>45033</v>
       </c>
       <c r="K7" s="45" t="s">
         <v>18</v>
@@ -1455,7 +1459,7 @@
         <v>17</v>
       </c>
       <c r="J8" s="44">
-        <v>45036</v>
+        <v>45035</v>
       </c>
       <c r="K8" s="45" t="s">
         <v>18</v>
@@ -1491,7 +1495,7 @@
         <v>17</v>
       </c>
       <c r="J9" s="44">
-        <v>45037</v>
+        <v>45033</v>
       </c>
       <c r="K9" s="45" t="s">
         <v>18</v>
@@ -1499,7 +1503,7 @@
       <c r="L9" s="37"/>
       <c r="M9" s="37"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" ht="36.75">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1511,8 +1515,8 @@
       <c r="D10" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>20</v>
+      <c r="E10" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="F10" s="42" t="s">
         <v>30</v>
@@ -1527,7 +1531,7 @@
         <v>17</v>
       </c>
       <c r="J10" s="44">
-        <v>45038</v>
+        <v>45035</v>
       </c>
       <c r="K10" s="45" t="s">
         <v>18</v>
@@ -1544,16 +1548,16 @@
         <v>1</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F11" s="42" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G11" s="36" t="s">
         <v>17</v>
@@ -1565,7 +1569,7 @@
         <v>17</v>
       </c>
       <c r="J11" s="44">
-        <v>45039</v>
+        <v>45033</v>
       </c>
       <c r="K11" s="45" t="s">
         <v>18</v>
@@ -1583,13 +1587,13 @@
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F12" s="42" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G12" s="36" t="s">
         <v>17</v>
@@ -1601,7 +1605,7 @@
         <v>17</v>
       </c>
       <c r="J12" s="44">
-        <v>45040</v>
+        <v>45033</v>
       </c>
       <c r="K12" s="45" t="s">
         <v>18</v>
@@ -1618,16 +1622,16 @@
         <v>3</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F13" s="42" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G13" s="36" t="s">
         <v>17</v>
@@ -1639,7 +1643,7 @@
         <v>17</v>
       </c>
       <c r="J13" s="44">
-        <v>45041</v>
+        <v>45033</v>
       </c>
       <c r="K13" s="45" t="s">
         <v>18</v>
@@ -1657,34 +1661,34 @@
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" s="42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G14" s="36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" s="36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" s="36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J14" s="44">
-        <v>45042</v>
+        <v>45033</v>
       </c>
       <c r="K14" s="45" t="s">
         <v>18</v>
       </c>
       <c r="L14" s="37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M14" s="47" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="55.5">
@@ -1697,13 +1701,13 @@
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F15" s="42" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G15" s="36" t="s">
         <v>17</v>
@@ -1715,7 +1719,7 @@
         <v>17</v>
       </c>
       <c r="J15" s="44">
-        <v>45043</v>
+        <v>45033</v>
       </c>
       <c r="K15" s="45" t="s">
         <v>18</v>
@@ -1733,13 +1737,13 @@
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F16" s="42" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G16" s="36" t="s">
         <v>17</v>
@@ -1751,7 +1755,7 @@
         <v>17</v>
       </c>
       <c r="J16" s="44">
-        <v>45044</v>
+        <v>45033</v>
       </c>
       <c r="K16" s="45" t="s">
         <v>18</v>
@@ -1769,13 +1773,13 @@
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F17" s="42" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G17" s="36" t="s">
         <v>17</v>
@@ -1787,7 +1791,7 @@
         <v>17</v>
       </c>
       <c r="J17" s="44">
-        <v>45045</v>
+        <v>45033</v>
       </c>
       <c r="K17" s="45" t="s">
         <v>18</v>
@@ -3405,63 +3409,63 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G1" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="H1" s="25" t="s">
-        <v>61</v>
-      </c>
       <c r="J1" s="30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K1" s="25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M1" s="30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N1" s="25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="23" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E2" s="26">
         <v>0</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H2" s="26">
         <v>0</v>
       </c>
       <c r="J2" s="31" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K2" s="26">
         <v>0</v>
       </c>
       <c r="M2" s="31" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N2" s="26">
         <v>0</v>
@@ -3469,31 +3473,31 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E3" s="28">
         <v>1</v>
       </c>
       <c r="G3" s="32" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H3" s="27">
         <v>1</v>
       </c>
       <c r="J3" s="33" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K3" s="28">
         <v>1</v>
       </c>
       <c r="M3" s="33" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N3" s="28">
         <v>1</v>
@@ -3501,13 +3505,13 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G4" s="32" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H4" s="27">
         <v>2</v>
@@ -3515,13 +3519,13 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G5" s="32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H5" s="27">
         <v>3</v>
@@ -3529,13 +3533,13 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G6" s="32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H6" s="27">
         <v>4</v>
@@ -3543,13 +3547,13 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G7" s="32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H7" s="27">
         <v>5</v>
@@ -3557,13 +3561,13 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H8" s="27">
         <v>6</v>
@@ -3571,13 +3575,13 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G9" s="32" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H9" s="27">
         <v>7</v>
@@ -3585,13 +3589,13 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H10" s="27">
         <v>8</v>
@@ -3599,13 +3603,13 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G11" s="32" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H11" s="27">
         <v>9</v>
@@ -3613,13 +3617,13 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="17" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G12" s="32" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H12" s="27">
         <v>10</v>
@@ -3627,13 +3631,13 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="17" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G13" s="32" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H13" s="27">
         <v>11</v>
@@ -3641,13 +3645,13 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="17" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G14" s="32" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H14" s="27">
         <v>12</v>
@@ -3655,13 +3659,13 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G15" s="32" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H15" s="27">
         <v>13</v>
@@ -3669,13 +3673,13 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="19" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G16" s="32" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H16" s="27">
         <v>14</v>
@@ -3683,7 +3687,7 @@
     </row>
     <row r="17" spans="7:8">
       <c r="G17" s="32" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H17" s="27">
         <v>15</v>
@@ -3691,7 +3695,7 @@
     </row>
     <row r="18" spans="7:8">
       <c r="G18" s="32" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H18" s="27">
         <v>16</v>
@@ -3699,7 +3703,7 @@
     </row>
     <row r="19" spans="7:8">
       <c r="G19" s="32" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H19" s="27">
         <v>17</v>
@@ -3707,7 +3711,7 @@
     </row>
     <row r="20" spans="7:8">
       <c r="G20" s="32" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H20" s="27">
         <v>18</v>
@@ -3715,7 +3719,7 @@
     </row>
     <row r="21" spans="7:8">
       <c r="G21" s="32" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H21" s="27">
         <v>19</v>
@@ -3723,7 +3727,7 @@
     </row>
     <row r="22" spans="7:8">
       <c r="G22" s="32" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H22" s="27">
         <v>20</v>
@@ -3731,7 +3735,7 @@
     </row>
     <row r="23" spans="7:8">
       <c r="G23" s="32" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H23" s="27">
         <v>21</v>
@@ -3739,7 +3743,7 @@
     </row>
     <row r="24" spans="7:8">
       <c r="G24" s="32" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H24" s="27">
         <v>22</v>
@@ -3747,7 +3751,7 @@
     </row>
     <row r="25" spans="7:8">
       <c r="G25" s="32" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H25" s="27">
         <v>23</v>
@@ -3755,7 +3759,7 @@
     </row>
     <row r="26" spans="7:8">
       <c r="G26" s="32" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H26" s="27">
         <v>24</v>
@@ -3763,7 +3767,7 @@
     </row>
     <row r="27" spans="7:8">
       <c r="G27" s="32" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H27" s="27">
         <v>25</v>
@@ -3771,7 +3775,7 @@
     </row>
     <row r="28" spans="7:8">
       <c r="G28" s="32" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H28" s="27">
         <v>26</v>
@@ -3779,7 +3783,7 @@
     </row>
     <row r="29" spans="7:8">
       <c r="G29" s="32" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H29" s="27">
         <v>27</v>
@@ -3787,7 +3791,7 @@
     </row>
     <row r="30" spans="7:8">
       <c r="G30" s="32" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H30" s="27">
         <v>28</v>
@@ -3795,7 +3799,7 @@
     </row>
     <row r="31" spans="7:8">
       <c r="G31" s="32" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H31" s="27">
         <v>29</v>
@@ -3803,7 +3807,7 @@
     </row>
     <row r="32" spans="7:8">
       <c r="G32" s="32" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H32" s="27">
         <v>30</v>
@@ -3811,7 +3815,7 @@
     </row>
     <row r="33" spans="7:8">
       <c r="G33" s="32" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H33" s="27">
         <v>31</v>
@@ -3819,7 +3823,7 @@
     </row>
     <row r="34" spans="7:8">
       <c r="G34" s="32" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H34" s="27">
         <v>32</v>
@@ -3827,7 +3831,7 @@
     </row>
     <row r="35" spans="7:8">
       <c r="G35" s="32" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H35" s="27">
         <v>33</v>
@@ -3835,7 +3839,7 @@
     </row>
     <row r="36" spans="7:8">
       <c r="G36" s="32" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H36" s="27">
         <v>34</v>
@@ -3843,7 +3847,7 @@
     </row>
     <row r="37" spans="7:8">
       <c r="G37" s="32" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H37" s="27">
         <v>35</v>
@@ -3851,7 +3855,7 @@
     </row>
     <row r="38" spans="7:8">
       <c r="G38" s="32" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H38" s="27">
         <v>36</v>
@@ -3859,7 +3863,7 @@
     </row>
     <row r="39" spans="7:8">
       <c r="G39" s="32" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H39" s="27">
         <v>37</v>
@@ -3867,7 +3871,7 @@
     </row>
     <row r="40" spans="7:8">
       <c r="G40" s="32" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H40" s="27">
         <v>38</v>
@@ -3875,7 +3879,7 @@
     </row>
     <row r="41" spans="7:8">
       <c r="G41" s="32" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H41" s="27">
         <v>39</v>
@@ -3883,7 +3887,7 @@
     </row>
     <row r="42" spans="7:8">
       <c r="G42" s="32" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H42" s="27">
         <v>40</v>
@@ -3891,7 +3895,7 @@
     </row>
     <row r="43" spans="7:8">
       <c r="G43" s="32" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H43" s="27">
         <v>41</v>
@@ -3899,7 +3903,7 @@
     </row>
     <row r="44" spans="7:8">
       <c r="G44" s="32" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H44" s="27">
         <v>42</v>
@@ -3907,7 +3911,7 @@
     </row>
     <row r="45" spans="7:8">
       <c r="G45" s="32" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H45" s="27">
         <v>43</v>
@@ -3915,7 +3919,7 @@
     </row>
     <row r="46" spans="7:8">
       <c r="G46" s="32" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H46" s="27">
         <v>44</v>
@@ -3923,7 +3927,7 @@
     </row>
     <row r="47" spans="7:8">
       <c r="G47" s="32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H47" s="27">
         <v>45</v>
@@ -3931,7 +3935,7 @@
     </row>
     <row r="48" spans="7:8">
       <c r="G48" s="33" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H48" s="28">
         <v>46</v>

--- a/test_case/integration-test-case.xlsx
+++ b/test_case/integration-test-case.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26415"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\plus_pm_jp\wp-content\uploads\blog\test-case-excel-integration-test\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0B5520C-B29A-45A4-A7ED-CBD5C78B531D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DE8C353-F360-447B-8A35-6801F56BC7CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2130" yWindow="2790" windowWidth="22725" windowHeight="12345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2130" yWindow="2790" windowWidth="22725" windowHeight="12345" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="結合テスト" sheetId="3" r:id="rId1"/>
     <sheet name="マスタ" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">結合テスト!$A$4:$H$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">結合テスト!$A$4:$I$4</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="160">
   <si>
     <t>テストID</t>
   </si>
@@ -52,6 +52,9 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>中項目</t>
+  </si>
+  <si>
     <t>小項目</t>
     <rPh sb="0" eb="3">
       <t>ショウコウモク</t>
@@ -91,6 +94,9 @@
   </si>
   <si>
     <t>画面遷移</t>
+  </si>
+  <si>
+    <t>登録画面</t>
   </si>
   <si>
     <t>登録画面から確認画面へ遷移できる</t>
@@ -120,6 +126,9 @@
     <t>河本</t>
   </si>
   <si>
+    <t>確認画面</t>
+  </si>
+  <si>
     <t>確認画面から登録画面へ遷移できる</t>
   </si>
   <si>
@@ -148,6 +157,9 @@
     <t>登録エラー画面が表示される</t>
   </si>
   <si>
+    <t>完了画面</t>
+  </si>
+  <si>
     <t>登録完了画面からTOP画面へ遷移できる</t>
   </si>
   <si>
@@ -155,6 +167,9 @@
   </si>
   <si>
     <t>TOP画面が表示される</t>
+  </si>
+  <si>
+    <t>登録エラー画面</t>
   </si>
   <si>
     <t>登録エラー画面からTOP画面へ遷移できる</t>
@@ -164,6 +179,15 @@
 2.【前に戻る】ボタンをクリックする</t>
   </si>
   <si>
+    <t>仕様変更</t>
+  </si>
+  <si>
+    <t>確認画面へ戻るようにする</t>
+  </si>
+  <si>
+    <t>登録エラー画面から確認画面へ遷移できる</t>
+  </si>
+  <si>
     <t>入力データの保持</t>
   </si>
   <si>
@@ -186,7 +210,13 @@
     <t>各入力欄へ、「テストID：7」にて、表示されていたテキストが表示される</t>
   </si>
   <si>
+    <t>確認画面で表示されていたデータが、登録エラー画面となっても、確認画面へ戻っても同じデータが表示される</t>
+  </si>
+  <si>
     <t>入力データをDB登録</t>
+  </si>
+  <si>
+    <t>DB</t>
   </si>
   <si>
     <t>確認画面で表示されていたデータがDBに登録できる</t>
@@ -210,6 +240,45 @@
 </t>
   </si>
   <si>
+    <t>1.「名前（姓）」の入力フォームへ「山田」を入力する
+2.「名前（名）」の入力フォームへ「太郎」を入力する
+3.「カナ（姓）」の入力フォームへ「ヤマダ」を入力する
+4.「カナ（名）」の入力フォームへ「タロウ」を入力する
+5.「メールアドレス」の入力フォームへ「test@mail.com」を入力する
+6.「パスワード」の入力フォームへ「abc123」を入力する
+7.「性別」のリストから「男性」を選択する
+8.「郵便番号」の入力フォームへ「0123456」を入力する
+9.「住所（都道府県）」のリストから「東京都」を選択する
+10.「住所（市区町村）」の入力フォームへ「新宿区西新宿」を入力する
+11.「住所（番地）」の入力フォームへ「1-1-1」を入力する
+12.「アカウント権限」のリストから「一般」を選択する
+13.確認ボタンをクリックする
+14.DBのカラムごとに登録されているテキストを目視する</t>
+  </si>
+  <si>
+    <t>入力したデータが、以下のカラムへ対応しDBへ登録される
+1.「family_name」＝「山田」
+2.「last_name」＝「太郎」
+3.「family_name_kana」＝「ヤマダ」
+4.「last_name_kana」＝「タロウ」
+5.「mail」＝「test@mail.com」
+6.「gender」＝「0」
+7.「postal_code」＝「0123456」
+8.「prefecture」＝「16」
+9.「address_1」＝「新宿区西新宿」
+10.「address_2」＝「1-1-1」
+11.「authority」＝「0」</t>
+  </si>
+  <si>
+    <t>NG</t>
+  </si>
+  <si>
+    <t>「postal_code」＝「0123456」ではなく「123456」での登録となる</t>
+  </si>
+  <si>
+    <t>データ型「Varchar」を変更する（仕様書の変更）</t>
+  </si>
+  <si>
     <t>DBに登録するデータに対して、登録した日時が付与される</t>
   </si>
   <si>
@@ -217,9 +286,6 @@
   </si>
   <si>
     <t>DBの「registered_time」カラムへ「yyyy-mm-dd hh:mm:ss」の形式で、登録したときの日時が登録される</t>
-  </si>
-  <si>
-    <t>NG</t>
   </si>
   <si>
     <t>登録時間の7時間前の日時で登録される</t>
@@ -1252,10 +1318,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1BE540C-CFE4-46E4-83A9-C3F67209797D}">
-  <dimension ref="A1:M104"/>
+  <dimension ref="A1:N107"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView showGridLines="0" topLeftCell="G12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1263,26 +1329,27 @@
     <col min="1" max="1" width="9.375" style="3" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.875" style="12" customWidth="1"/>
-    <col min="5" max="5" width="62.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="44.25" style="16" customWidth="1"/>
-    <col min="7" max="8" width="10.125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.125" customWidth="1"/>
-    <col min="10" max="10" width="10.125" style="29" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.25" style="29" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="29.125" customWidth="1"/>
+    <col min="4" max="4" width="20.25" style="3" customWidth="1"/>
+    <col min="5" max="5" width="45.875" style="12" customWidth="1"/>
+    <col min="6" max="6" width="62.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="44.25" style="16" customWidth="1"/>
+    <col min="8" max="9" width="10.125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.125" customWidth="1"/>
+    <col min="11" max="11" width="10.125" style="29" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.25" style="29" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="29.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
@@ -1292,16 +1359,16 @@
       <c r="C4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="G4" s="39" t="s">
         <v>6</v>
       </c>
       <c r="H4" s="35" t="s">
@@ -1313,53 +1380,59 @@
       <c r="J4" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="43" t="s">
+      <c r="K4" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="35" t="s">
+      <c r="L4" s="43" t="s">
         <v>11</v>
       </c>
       <c r="M4" s="35" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="238.5">
+      <c r="N4" s="35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="238.5">
       <c r="A5" s="4">
         <f>ROW()-4</f>
         <v>1</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="E5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="36" t="s">
+      <c r="F5" s="8" t="s">
         <v>17</v>
       </c>
+      <c r="G5" s="40" t="s">
+        <v>18</v>
+      </c>
       <c r="H5" s="36" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I5" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="44">
+        <v>19</v>
+      </c>
+      <c r="J5" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="44">
         <v>45033</v>
       </c>
-      <c r="K5" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" s="37"/>
+      <c r="L5" s="45" t="s">
+        <v>20</v>
+      </c>
       <c r="M5" s="37"/>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5" s="37"/>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="4">
         <f>ROW()-4</f>
         <v>2</v>
@@ -1368,70 +1441,76 @@
         <v>1</v>
       </c>
       <c r="C6" s="7"/>
-      <c r="D6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="D6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="44">
+        <v>45033</v>
+      </c>
+      <c r="L6" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="44">
-        <v>45033</v>
-      </c>
-      <c r="K6" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" s="37"/>
       <c r="M6" s="37"/>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6" s="37"/>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="4">
-        <f t="shared" ref="A7:A70" si="0">ROW()-4</f>
+        <f t="shared" ref="A7:A73" si="0">ROW()-4</f>
         <v>3</v>
       </c>
       <c r="B7" s="11">
         <v>1</v>
       </c>
       <c r="C7" s="7"/>
-      <c r="D7" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="36" t="s">
-        <v>17</v>
+      <c r="D7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="42" t="s">
+        <v>27</v>
       </c>
       <c r="H7" s="36" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I7" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="44">
+        <v>19</v>
+      </c>
+      <c r="J7" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="44">
         <v>45033</v>
       </c>
-      <c r="K7" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" s="37"/>
+      <c r="L7" s="45" t="s">
+        <v>20</v>
+      </c>
       <c r="M7" s="37"/>
-    </row>
-    <row r="8" spans="1:13" ht="36.75">
+      <c r="N7" s="37"/>
+    </row>
+    <row r="8" spans="1:14" ht="36.75">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1440,34 +1519,37 @@
         <v>1</v>
       </c>
       <c r="C8" s="7"/>
-      <c r="D8" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="36" t="s">
-        <v>17</v>
+      <c r="D8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="42" t="s">
+        <v>30</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I8" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="44">
+        <v>19</v>
+      </c>
+      <c r="J8" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="44">
         <v>45035</v>
       </c>
-      <c r="K8" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="L8" s="37"/>
+      <c r="L8" s="45" t="s">
+        <v>20</v>
+      </c>
       <c r="M8" s="37"/>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8" s="37"/>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1476,34 +1558,37 @@
         <v>3</v>
       </c>
       <c r="C9" s="7"/>
-      <c r="D9" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="36" t="s">
-        <v>17</v>
+      <c r="D9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="42" t="s">
+        <v>34</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I9" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="44">
+        <v>19</v>
+      </c>
+      <c r="J9" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="44">
         <v>45033</v>
       </c>
-      <c r="K9" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="L9" s="37"/>
+      <c r="L9" s="45" t="s">
+        <v>20</v>
+      </c>
       <c r="M9" s="37"/>
-    </row>
-    <row r="10" spans="1:13" ht="36.75">
+      <c r="N9" s="37"/>
+    </row>
+    <row r="10" spans="1:14" ht="36.75">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1512,186 +1597,199 @@
         <v>4</v>
       </c>
       <c r="C10" s="7"/>
-      <c r="D10" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="36" t="s">
-        <v>17</v>
+      <c r="D10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="42" t="s">
+        <v>34</v>
       </c>
       <c r="H10" s="36" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I10" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="44">
+        <v>19</v>
+      </c>
+      <c r="J10" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="44">
         <v>45035</v>
       </c>
-      <c r="K10" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
-    </row>
-    <row r="11" spans="1:13" ht="55.5">
+      <c r="L10" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="N10" s="37" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="36.75">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B11" s="11">
+        <v>4</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="44">
+        <v>45037</v>
+      </c>
+      <c r="L11" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+    </row>
+    <row r="12" spans="1:14" ht="55.5">
+      <c r="A12" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B12" s="11">
         <v>1</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="44">
+      <c r="C12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="44">
         <v>45033</v>
       </c>
-      <c r="K11" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-    </row>
-    <row r="12" spans="1:13" ht="36.75">
-      <c r="A12" s="4">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B12" s="11">
+      <c r="L12" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
+    </row>
+    <row r="13" spans="1:14" ht="36.75">
+      <c r="A13" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B13" s="11">
         <v>2</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="44">
+      <c r="C13" s="7"/>
+      <c r="D13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="44">
         <v>45033</v>
       </c>
-      <c r="K12" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
-    </row>
-    <row r="13" spans="1:13" ht="256.5">
-      <c r="A13" s="4">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B13" s="11">
-        <v>3</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" s="44">
-        <v>45033</v>
-      </c>
-      <c r="K13" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="L13" s="37"/>
+      <c r="L13" s="45" t="s">
+        <v>20</v>
+      </c>
       <c r="M13" s="37"/>
-    </row>
-    <row r="14" spans="1:13" ht="55.5">
+      <c r="N13" s="37"/>
+    </row>
+    <row r="14" spans="1:14" ht="55.5">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B14" s="11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C14" s="7"/>
-      <c r="D14" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="42" t="s">
+      <c r="D14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G14" s="36" t="s">
+      <c r="G14" s="42" t="s">
         <v>47</v>
       </c>
       <c r="H14" s="36" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="I14" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="J14" s="44">
-        <v>45033</v>
-      </c>
-      <c r="K14" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="L14" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="M14" s="47" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="55.5">
+        <v>19</v>
+      </c>
+      <c r="J14" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" s="44">
+        <v>45037</v>
+      </c>
+      <c r="L14" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+    </row>
+    <row r="15" spans="1:14" ht="256.5">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1699,71 +1797,81 @@
       <c r="B15" s="11">
         <v>3</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="15" t="s">
+      <c r="C15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="42" t="s">
+      <c r="F15" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G15" s="36" t="s">
-        <v>17</v>
+      <c r="G15" s="42" t="s">
+        <v>53</v>
       </c>
       <c r="H15" s="36" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I15" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" s="44">
+        <v>19</v>
+      </c>
+      <c r="J15" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="44">
         <v>45033</v>
       </c>
-      <c r="K15" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="L15" s="37"/>
+      <c r="L15" s="45" t="s">
+        <v>20</v>
+      </c>
       <c r="M15" s="37"/>
-    </row>
-    <row r="16" spans="1:13" ht="36.75">
+      <c r="N15" s="37"/>
+    </row>
+    <row r="16" spans="1:14" ht="256.5">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B16" s="11">
-        <v>3</v>
-      </c>
+      <c r="B16" s="11"/>
       <c r="C16" s="7"/>
-      <c r="D16" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" s="5" t="s">
+      <c r="D16" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="42" t="s">
+      <c r="G16" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="G16" s="36" t="s">
-        <v>17</v>
-      </c>
       <c r="H16" s="36" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="I16" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" s="44">
-        <v>45033</v>
-      </c>
-      <c r="K16" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
-    </row>
-    <row r="17" spans="1:13" ht="36.75">
+        <v>56</v>
+      </c>
+      <c r="J16" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="K16" s="44">
+        <v>45037</v>
+      </c>
+      <c r="L16" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="N16" s="37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="55.5">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1772,1604 +1880,1815 @@
         <v>3</v>
       </c>
       <c r="C17" s="7"/>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F17" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="G17" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" s="36" t="s">
-        <v>17</v>
-      </c>
       <c r="I17" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="J17" s="44">
+        <v>56</v>
+      </c>
+      <c r="J17" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="K17" s="44">
         <v>45033</v>
       </c>
-      <c r="K17" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="L17" s="37"/>
-      <c r="M17" s="37"/>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="L17" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="N17" s="47" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="55.5">
       <c r="A18" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B18" s="11"/>
+      <c r="B18" s="11">
+        <v>3</v>
+      </c>
       <c r="C18" s="7"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="37"/>
+      <c r="D18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="44">
+        <v>45033</v>
+      </c>
+      <c r="L18" s="45" t="s">
+        <v>20</v>
+      </c>
       <c r="M18" s="37"/>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="37"/>
+    </row>
+    <row r="19" spans="1:14" ht="36.75">
       <c r="A19" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B19" s="11"/>
+      <c r="B19" s="11">
+        <v>3</v>
+      </c>
       <c r="C19" s="7"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="37"/>
+      <c r="D19" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="H19" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" s="44">
+        <v>45033</v>
+      </c>
+      <c r="L19" s="45" t="s">
+        <v>20</v>
+      </c>
       <c r="M19" s="37"/>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19" s="37"/>
+    </row>
+    <row r="20" spans="1:14" ht="36.75">
       <c r="A20" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B20" s="11"/>
+      <c r="B20" s="11">
+        <v>3</v>
+      </c>
       <c r="C20" s="7"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="37"/>
+      <c r="D20" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G20" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="H20" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20" s="44">
+        <v>45033</v>
+      </c>
+      <c r="L20" s="45" t="s">
+        <v>20</v>
+      </c>
       <c r="M20" s="37"/>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20" s="37"/>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="7"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="37"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="45"/>
       <c r="M21" s="37"/>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="37"/>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B22" s="11"/>
       <c r="C22" s="7"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="37"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="45"/>
       <c r="M22" s="37"/>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22" s="37"/>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B23" s="11"/>
       <c r="C23" s="7"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="37"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="45"/>
       <c r="M23" s="37"/>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23" s="37"/>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B24" s="11"/>
       <c r="C24" s="7"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="46"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="37"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="45"/>
       <c r="M24" s="37"/>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24" s="37"/>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B25" s="11"/>
       <c r="C25" s="7"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="37"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="45"/>
       <c r="M25" s="37"/>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="N25" s="37"/>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B26" s="11"/>
       <c r="C26" s="7"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="46"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="37"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="45"/>
       <c r="M26" s="37"/>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="37"/>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="4">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="7"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="46"/>
-      <c r="K27" s="45"/>
-      <c r="L27" s="37"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="45"/>
       <c r="M27" s="37"/>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="37"/>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="4">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B28" s="11"/>
       <c r="C28" s="7"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="46"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="37"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="45"/>
       <c r="M28" s="37"/>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="N28" s="37"/>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B29" s="11"/>
       <c r="C29" s="7"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="46"/>
-      <c r="K29" s="45"/>
-      <c r="L29" s="37"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="45"/>
       <c r="M29" s="37"/>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="37"/>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" s="4">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B30" s="11"/>
       <c r="C30" s="7"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="46"/>
-      <c r="K30" s="45"/>
-      <c r="L30" s="37"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="45"/>
       <c r="M30" s="37"/>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="37"/>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B31" s="11"/>
       <c r="C31" s="7"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="46"/>
-      <c r="K31" s="45"/>
-      <c r="L31" s="37"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="45"/>
       <c r="M31" s="37"/>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="37"/>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" s="4">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B32" s="11"/>
       <c r="C32" s="7"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="46"/>
-      <c r="K32" s="45"/>
-      <c r="L32" s="37"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="45"/>
       <c r="M32" s="37"/>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="N32" s="37"/>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" s="4">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B33" s="11"/>
       <c r="C33" s="7"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="46"/>
-      <c r="K33" s="45"/>
-      <c r="L33" s="37"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="45"/>
       <c r="M33" s="37"/>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="37"/>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B34" s="11"/>
       <c r="C34" s="7"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="37"/>
-      <c r="J34" s="46"/>
-      <c r="K34" s="45"/>
-      <c r="L34" s="37"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="46"/>
+      <c r="L34" s="45"/>
       <c r="M34" s="37"/>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="37"/>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" s="4">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B35" s="11"/>
       <c r="C35" s="7"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="37"/>
-      <c r="J35" s="46"/>
-      <c r="K35" s="45"/>
-      <c r="L35" s="37"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="37"/>
+      <c r="K35" s="46"/>
+      <c r="L35" s="45"/>
       <c r="M35" s="37"/>
-    </row>
-    <row r="36" spans="1:13">
+      <c r="N35" s="37"/>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" s="4">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B36" s="11"/>
       <c r="C36" s="7"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="37"/>
-      <c r="J36" s="46"/>
-      <c r="K36" s="45"/>
-      <c r="L36" s="37"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="46"/>
+      <c r="L36" s="45"/>
       <c r="M36" s="37"/>
-    </row>
-    <row r="37" spans="1:13">
+      <c r="N36" s="37"/>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" s="4">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B37" s="11"/>
       <c r="C37" s="7"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="37"/>
-      <c r="J37" s="46"/>
-      <c r="K37" s="45"/>
-      <c r="L37" s="37"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="46"/>
+      <c r="L37" s="45"/>
       <c r="M37" s="37"/>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="37"/>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" s="4">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B38" s="11"/>
       <c r="C38" s="7"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="46"/>
-      <c r="K38" s="45"/>
-      <c r="L38" s="37"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="46"/>
+      <c r="L38" s="45"/>
       <c r="M38" s="37"/>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="37"/>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39" s="4">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B39" s="11"/>
       <c r="C39" s="7"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="37"/>
-      <c r="J39" s="46"/>
-      <c r="K39" s="45"/>
-      <c r="L39" s="37"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="46"/>
+      <c r="L39" s="45"/>
       <c r="M39" s="37"/>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="37"/>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40" s="4">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B40" s="11"/>
       <c r="C40" s="7"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="46"/>
-      <c r="K40" s="45"/>
-      <c r="L40" s="37"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="37"/>
+      <c r="K40" s="46"/>
+      <c r="L40" s="45"/>
       <c r="M40" s="37"/>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="N40" s="37"/>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41" s="4">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B41" s="11"/>
       <c r="C41" s="7"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="37"/>
-      <c r="J41" s="46"/>
-      <c r="K41" s="45"/>
-      <c r="L41" s="37"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="38"/>
+      <c r="J41" s="37"/>
+      <c r="K41" s="46"/>
+      <c r="L41" s="45"/>
       <c r="M41" s="37"/>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="37"/>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42" s="4">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B42" s="11"/>
       <c r="C42" s="7"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="42"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="37"/>
-      <c r="J42" s="46"/>
-      <c r="K42" s="45"/>
-      <c r="L42" s="37"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="38"/>
+      <c r="J42" s="37"/>
+      <c r="K42" s="46"/>
+      <c r="L42" s="45"/>
       <c r="M42" s="37"/>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="37"/>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43" s="4">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B43" s="11"/>
       <c r="C43" s="7"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="42"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="37"/>
-      <c r="J43" s="46"/>
-      <c r="K43" s="45"/>
-      <c r="L43" s="37"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="38"/>
+      <c r="J43" s="37"/>
+      <c r="K43" s="46"/>
+      <c r="L43" s="45"/>
       <c r="M43" s="37"/>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="N43" s="37"/>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44" s="4">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B44" s="11"/>
       <c r="C44" s="7"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="42"/>
-      <c r="G44" s="36"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="37"/>
-      <c r="J44" s="46"/>
-      <c r="K44" s="45"/>
-      <c r="L44" s="37"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="38"/>
+      <c r="J44" s="37"/>
+      <c r="K44" s="46"/>
+      <c r="L44" s="45"/>
       <c r="M44" s="37"/>
-    </row>
-    <row r="45" spans="1:13">
+      <c r="N44" s="37"/>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45" s="4">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="B45" s="11"/>
       <c r="C45" s="7"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="42"/>
-      <c r="G45" s="36"/>
-      <c r="H45" s="38"/>
-      <c r="I45" s="37"/>
-      <c r="J45" s="46"/>
-      <c r="K45" s="45"/>
-      <c r="L45" s="37"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="36"/>
+      <c r="I45" s="38"/>
+      <c r="J45" s="37"/>
+      <c r="K45" s="46"/>
+      <c r="L45" s="45"/>
       <c r="M45" s="37"/>
-    </row>
-    <row r="46" spans="1:13">
+      <c r="N45" s="37"/>
+    </row>
+    <row r="46" spans="1:14">
       <c r="A46" s="4">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="B46" s="11"/>
       <c r="C46" s="7"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="36"/>
-      <c r="H46" s="38"/>
-      <c r="I46" s="37"/>
-      <c r="J46" s="46"/>
-      <c r="K46" s="45"/>
-      <c r="L46" s="37"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="38"/>
+      <c r="J46" s="37"/>
+      <c r="K46" s="46"/>
+      <c r="L46" s="45"/>
       <c r="M46" s="37"/>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="37"/>
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47" s="4">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="B47" s="11"/>
       <c r="C47" s="7"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="42"/>
-      <c r="G47" s="36"/>
-      <c r="H47" s="38"/>
-      <c r="I47" s="37"/>
-      <c r="J47" s="46"/>
-      <c r="K47" s="45"/>
-      <c r="L47" s="37"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="38"/>
+      <c r="J47" s="37"/>
+      <c r="K47" s="46"/>
+      <c r="L47" s="45"/>
       <c r="M47" s="37"/>
-    </row>
-    <row r="48" spans="1:13">
+      <c r="N47" s="37"/>
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48" s="4">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="B48" s="11"/>
       <c r="C48" s="7"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="42"/>
-      <c r="G48" s="36"/>
-      <c r="H48" s="38"/>
-      <c r="I48" s="37"/>
-      <c r="J48" s="46"/>
-      <c r="K48" s="45"/>
-      <c r="L48" s="37"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="42"/>
+      <c r="H48" s="36"/>
+      <c r="I48" s="38"/>
+      <c r="J48" s="37"/>
+      <c r="K48" s="46"/>
+      <c r="L48" s="45"/>
       <c r="M48" s="37"/>
-    </row>
-    <row r="49" spans="1:13">
+      <c r="N48" s="37"/>
+    </row>
+    <row r="49" spans="1:14">
       <c r="A49" s="4">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="B49" s="11"/>
       <c r="C49" s="7"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="42"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="38"/>
-      <c r="I49" s="37"/>
-      <c r="J49" s="46"/>
-      <c r="K49" s="45"/>
-      <c r="L49" s="37"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="42"/>
+      <c r="H49" s="36"/>
+      <c r="I49" s="38"/>
+      <c r="J49" s="37"/>
+      <c r="K49" s="46"/>
+      <c r="L49" s="45"/>
       <c r="M49" s="37"/>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="37"/>
+    </row>
+    <row r="50" spans="1:14">
       <c r="A50" s="4">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="B50" s="11"/>
       <c r="C50" s="7"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="42"/>
-      <c r="G50" s="36"/>
-      <c r="H50" s="38"/>
-      <c r="I50" s="37"/>
-      <c r="J50" s="46"/>
-      <c r="K50" s="45"/>
-      <c r="L50" s="37"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="36"/>
+      <c r="I50" s="38"/>
+      <c r="J50" s="37"/>
+      <c r="K50" s="46"/>
+      <c r="L50" s="45"/>
       <c r="M50" s="37"/>
-    </row>
-    <row r="51" spans="1:13">
+      <c r="N50" s="37"/>
+    </row>
+    <row r="51" spans="1:14">
       <c r="A51" s="4">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="B51" s="11"/>
       <c r="C51" s="7"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="42"/>
-      <c r="G51" s="36"/>
-      <c r="H51" s="38"/>
-      <c r="I51" s="37"/>
-      <c r="J51" s="46"/>
-      <c r="K51" s="45"/>
-      <c r="L51" s="37"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="42"/>
+      <c r="H51" s="36"/>
+      <c r="I51" s="38"/>
+      <c r="J51" s="37"/>
+      <c r="K51" s="46"/>
+      <c r="L51" s="45"/>
       <c r="M51" s="37"/>
-    </row>
-    <row r="52" spans="1:13">
+      <c r="N51" s="37"/>
+    </row>
+    <row r="52" spans="1:14">
       <c r="A52" s="4">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="B52" s="11"/>
       <c r="C52" s="7"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="42"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="38"/>
-      <c r="I52" s="37"/>
-      <c r="J52" s="46"/>
-      <c r="K52" s="45"/>
-      <c r="L52" s="37"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="38"/>
+      <c r="J52" s="37"/>
+      <c r="K52" s="46"/>
+      <c r="L52" s="45"/>
       <c r="M52" s="37"/>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="37"/>
+    </row>
+    <row r="53" spans="1:14">
       <c r="A53" s="4">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="B53" s="11"/>
       <c r="C53" s="7"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="42"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="38"/>
-      <c r="I53" s="37"/>
-      <c r="J53" s="46"/>
-      <c r="K53" s="45"/>
-      <c r="L53" s="37"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="42"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="38"/>
+      <c r="J53" s="37"/>
+      <c r="K53" s="46"/>
+      <c r="L53" s="45"/>
       <c r="M53" s="37"/>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="37"/>
+    </row>
+    <row r="54" spans="1:14">
       <c r="A54" s="4">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="B54" s="11"/>
       <c r="C54" s="7"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="42"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="38"/>
-      <c r="I54" s="37"/>
-      <c r="J54" s="46"/>
-      <c r="K54" s="45"/>
-      <c r="L54" s="37"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="42"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="38"/>
+      <c r="J54" s="37"/>
+      <c r="K54" s="46"/>
+      <c r="L54" s="45"/>
       <c r="M54" s="37"/>
-    </row>
-    <row r="55" spans="1:13">
+      <c r="N54" s="37"/>
+    </row>
+    <row r="55" spans="1:14">
       <c r="A55" s="4">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="B55" s="11"/>
       <c r="C55" s="7"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="42"/>
-      <c r="G55" s="36"/>
-      <c r="H55" s="38"/>
-      <c r="I55" s="37"/>
-      <c r="J55" s="46"/>
-      <c r="K55" s="45"/>
-      <c r="L55" s="37"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="36"/>
+      <c r="I55" s="38"/>
+      <c r="J55" s="37"/>
+      <c r="K55" s="46"/>
+      <c r="L55" s="45"/>
       <c r="M55" s="37"/>
-    </row>
-    <row r="56" spans="1:13">
+      <c r="N55" s="37"/>
+    </row>
+    <row r="56" spans="1:14">
       <c r="A56" s="4">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="B56" s="11"/>
       <c r="C56" s="7"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="42"/>
-      <c r="G56" s="36"/>
-      <c r="H56" s="38"/>
-      <c r="I56" s="37"/>
-      <c r="J56" s="46"/>
-      <c r="K56" s="45"/>
-      <c r="L56" s="37"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="42"/>
+      <c r="H56" s="36"/>
+      <c r="I56" s="38"/>
+      <c r="J56" s="37"/>
+      <c r="K56" s="46"/>
+      <c r="L56" s="45"/>
       <c r="M56" s="37"/>
-    </row>
-    <row r="57" spans="1:13">
+      <c r="N56" s="37"/>
+    </row>
+    <row r="57" spans="1:14">
       <c r="A57" s="4">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="B57" s="11"/>
       <c r="C57" s="7"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="42"/>
-      <c r="G57" s="36"/>
-      <c r="H57" s="38"/>
-      <c r="I57" s="37"/>
-      <c r="J57" s="46"/>
-      <c r="K57" s="45"/>
-      <c r="L57" s="37"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="42"/>
+      <c r="H57" s="36"/>
+      <c r="I57" s="38"/>
+      <c r="J57" s="37"/>
+      <c r="K57" s="46"/>
+      <c r="L57" s="45"/>
       <c r="M57" s="37"/>
-    </row>
-    <row r="58" spans="1:13">
+      <c r="N57" s="37"/>
+    </row>
+    <row r="58" spans="1:14">
       <c r="A58" s="4">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="B58" s="11"/>
       <c r="C58" s="7"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="42"/>
-      <c r="G58" s="36"/>
-      <c r="H58" s="38"/>
-      <c r="I58" s="37"/>
-      <c r="J58" s="46"/>
-      <c r="K58" s="45"/>
-      <c r="L58" s="37"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="42"/>
+      <c r="H58" s="36"/>
+      <c r="I58" s="38"/>
+      <c r="J58" s="37"/>
+      <c r="K58" s="46"/>
+      <c r="L58" s="45"/>
       <c r="M58" s="37"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="37"/>
+    </row>
+    <row r="59" spans="1:14">
       <c r="A59" s="4">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="B59" s="11"/>
       <c r="C59" s="7"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="42"/>
-      <c r="G59" s="36"/>
-      <c r="H59" s="38"/>
-      <c r="I59" s="37"/>
-      <c r="J59" s="46"/>
-      <c r="K59" s="45"/>
-      <c r="L59" s="37"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="42"/>
+      <c r="H59" s="36"/>
+      <c r="I59" s="38"/>
+      <c r="J59" s="37"/>
+      <c r="K59" s="46"/>
+      <c r="L59" s="45"/>
       <c r="M59" s="37"/>
-    </row>
-    <row r="60" spans="1:13">
+      <c r="N59" s="37"/>
+    </row>
+    <row r="60" spans="1:14">
       <c r="A60" s="4">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="B60" s="11"/>
       <c r="C60" s="7"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="42"/>
-      <c r="G60" s="36"/>
-      <c r="H60" s="38"/>
-      <c r="I60" s="37"/>
-      <c r="J60" s="46"/>
-      <c r="K60" s="45"/>
-      <c r="L60" s="37"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="42"/>
+      <c r="H60" s="36"/>
+      <c r="I60" s="38"/>
+      <c r="J60" s="37"/>
+      <c r="K60" s="46"/>
+      <c r="L60" s="45"/>
       <c r="M60" s="37"/>
-    </row>
-    <row r="61" spans="1:13">
+      <c r="N60" s="37"/>
+    </row>
+    <row r="61" spans="1:14">
       <c r="A61" s="4">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="B61" s="11"/>
       <c r="C61" s="7"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="42"/>
-      <c r="G61" s="36"/>
-      <c r="H61" s="38"/>
-      <c r="I61" s="37"/>
-      <c r="J61" s="46"/>
-      <c r="K61" s="45"/>
-      <c r="L61" s="37"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="42"/>
+      <c r="H61" s="36"/>
+      <c r="I61" s="38"/>
+      <c r="J61" s="37"/>
+      <c r="K61" s="46"/>
+      <c r="L61" s="45"/>
       <c r="M61" s="37"/>
-    </row>
-    <row r="62" spans="1:13">
+      <c r="N61" s="37"/>
+    </row>
+    <row r="62" spans="1:14">
       <c r="A62" s="4">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="B62" s="11"/>
       <c r="C62" s="7"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="42"/>
-      <c r="G62" s="36"/>
-      <c r="H62" s="38"/>
-      <c r="I62" s="37"/>
-      <c r="J62" s="46"/>
-      <c r="K62" s="45"/>
-      <c r="L62" s="37"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="42"/>
+      <c r="H62" s="36"/>
+      <c r="I62" s="38"/>
+      <c r="J62" s="37"/>
+      <c r="K62" s="46"/>
+      <c r="L62" s="45"/>
       <c r="M62" s="37"/>
-    </row>
-    <row r="63" spans="1:13">
+      <c r="N62" s="37"/>
+    </row>
+    <row r="63" spans="1:14">
       <c r="A63" s="4">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="B63" s="11"/>
       <c r="C63" s="7"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="42"/>
-      <c r="G63" s="36"/>
-      <c r="H63" s="38"/>
-      <c r="I63" s="37"/>
-      <c r="J63" s="46"/>
-      <c r="K63" s="45"/>
-      <c r="L63" s="37"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="42"/>
+      <c r="H63" s="36"/>
+      <c r="I63" s="38"/>
+      <c r="J63" s="37"/>
+      <c r="K63" s="46"/>
+      <c r="L63" s="45"/>
       <c r="M63" s="37"/>
-    </row>
-    <row r="64" spans="1:13">
+      <c r="N63" s="37"/>
+    </row>
+    <row r="64" spans="1:14">
       <c r="A64" s="4">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="B64" s="11"/>
       <c r="C64" s="7"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="42"/>
-      <c r="G64" s="36"/>
-      <c r="H64" s="38"/>
-      <c r="I64" s="37"/>
-      <c r="J64" s="46"/>
-      <c r="K64" s="45"/>
-      <c r="L64" s="37"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="42"/>
+      <c r="H64" s="36"/>
+      <c r="I64" s="38"/>
+      <c r="J64" s="37"/>
+      <c r="K64" s="46"/>
+      <c r="L64" s="45"/>
       <c r="M64" s="37"/>
-    </row>
-    <row r="65" spans="1:13">
+      <c r="N64" s="37"/>
+    </row>
+    <row r="65" spans="1:14">
       <c r="A65" s="4">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="B65" s="11"/>
       <c r="C65" s="7"/>
-      <c r="D65" s="15"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="42"/>
-      <c r="G65" s="36"/>
-      <c r="H65" s="38"/>
-      <c r="I65" s="37"/>
-      <c r="J65" s="46"/>
-      <c r="K65" s="45"/>
-      <c r="L65" s="37"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="42"/>
+      <c r="H65" s="36"/>
+      <c r="I65" s="38"/>
+      <c r="J65" s="37"/>
+      <c r="K65" s="46"/>
+      <c r="L65" s="45"/>
       <c r="M65" s="37"/>
-    </row>
-    <row r="66" spans="1:13">
+      <c r="N65" s="37"/>
+    </row>
+    <row r="66" spans="1:14">
       <c r="A66" s="4">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="B66" s="11"/>
       <c r="C66" s="7"/>
-      <c r="D66" s="15"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="42"/>
-      <c r="G66" s="36"/>
-      <c r="H66" s="38"/>
-      <c r="I66" s="37"/>
-      <c r="J66" s="46"/>
-      <c r="K66" s="45"/>
-      <c r="L66" s="37"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="42"/>
+      <c r="H66" s="36"/>
+      <c r="I66" s="38"/>
+      <c r="J66" s="37"/>
+      <c r="K66" s="46"/>
+      <c r="L66" s="45"/>
       <c r="M66" s="37"/>
-    </row>
-    <row r="67" spans="1:13">
+      <c r="N66" s="37"/>
+    </row>
+    <row r="67" spans="1:14">
       <c r="A67" s="4">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="B67" s="11"/>
       <c r="C67" s="7"/>
-      <c r="D67" s="15"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="42"/>
-      <c r="G67" s="36"/>
-      <c r="H67" s="38"/>
-      <c r="I67" s="37"/>
-      <c r="J67" s="46"/>
-      <c r="K67" s="45"/>
-      <c r="L67" s="37"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="42"/>
+      <c r="H67" s="36"/>
+      <c r="I67" s="38"/>
+      <c r="J67" s="37"/>
+      <c r="K67" s="46"/>
+      <c r="L67" s="45"/>
       <c r="M67" s="37"/>
-    </row>
-    <row r="68" spans="1:13">
+      <c r="N67" s="37"/>
+    </row>
+    <row r="68" spans="1:14">
       <c r="A68" s="4">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="B68" s="11"/>
       <c r="C68" s="7"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="42"/>
-      <c r="G68" s="36"/>
-      <c r="H68" s="38"/>
-      <c r="I68" s="37"/>
-      <c r="J68" s="46"/>
-      <c r="K68" s="45"/>
-      <c r="L68" s="37"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="42"/>
+      <c r="H68" s="36"/>
+      <c r="I68" s="38"/>
+      <c r="J68" s="37"/>
+      <c r="K68" s="46"/>
+      <c r="L68" s="45"/>
       <c r="M68" s="37"/>
-    </row>
-    <row r="69" spans="1:13">
+      <c r="N68" s="37"/>
+    </row>
+    <row r="69" spans="1:14">
       <c r="A69" s="4">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="B69" s="11"/>
       <c r="C69" s="7"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="42"/>
-      <c r="G69" s="36"/>
-      <c r="H69" s="38"/>
-      <c r="I69" s="37"/>
-      <c r="J69" s="46"/>
-      <c r="K69" s="45"/>
-      <c r="L69" s="37"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="42"/>
+      <c r="H69" s="36"/>
+      <c r="I69" s="38"/>
+      <c r="J69" s="37"/>
+      <c r="K69" s="46"/>
+      <c r="L69" s="45"/>
       <c r="M69" s="37"/>
-    </row>
-    <row r="70" spans="1:13">
+      <c r="N69" s="37"/>
+    </row>
+    <row r="70" spans="1:14">
       <c r="A70" s="4">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
       <c r="B70" s="11"/>
       <c r="C70" s="7"/>
-      <c r="D70" s="15"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="42"/>
-      <c r="G70" s="36"/>
-      <c r="H70" s="38"/>
-      <c r="I70" s="37"/>
-      <c r="J70" s="46"/>
-      <c r="K70" s="45"/>
-      <c r="L70" s="37"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="42"/>
+      <c r="H70" s="36"/>
+      <c r="I70" s="38"/>
+      <c r="J70" s="37"/>
+      <c r="K70" s="46"/>
+      <c r="L70" s="45"/>
       <c r="M70" s="37"/>
-    </row>
-    <row r="71" spans="1:13">
+      <c r="N70" s="37"/>
+    </row>
+    <row r="71" spans="1:14">
       <c r="A71" s="4">
-        <f t="shared" ref="A71:A104" si="1">ROW()-4</f>
+        <f t="shared" si="0"/>
         <v>67</v>
       </c>
       <c r="B71" s="11"/>
       <c r="C71" s="7"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="42"/>
-      <c r="G71" s="36"/>
-      <c r="H71" s="38"/>
-      <c r="I71" s="37"/>
-      <c r="J71" s="46"/>
-      <c r="K71" s="45"/>
-      <c r="L71" s="37"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="42"/>
+      <c r="H71" s="36"/>
+      <c r="I71" s="38"/>
+      <c r="J71" s="37"/>
+      <c r="K71" s="46"/>
+      <c r="L71" s="45"/>
       <c r="M71" s="37"/>
-    </row>
-    <row r="72" spans="1:13">
+      <c r="N71" s="37"/>
+    </row>
+    <row r="72" spans="1:14">
       <c r="A72" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>68</v>
       </c>
       <c r="B72" s="11"/>
       <c r="C72" s="7"/>
-      <c r="D72" s="15"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="42"/>
-      <c r="G72" s="36"/>
-      <c r="H72" s="38"/>
-      <c r="I72" s="37"/>
-      <c r="J72" s="46"/>
-      <c r="K72" s="45"/>
-      <c r="L72" s="37"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="42"/>
+      <c r="H72" s="36"/>
+      <c r="I72" s="38"/>
+      <c r="J72" s="37"/>
+      <c r="K72" s="46"/>
+      <c r="L72" s="45"/>
       <c r="M72" s="37"/>
-    </row>
-    <row r="73" spans="1:13">
+      <c r="N72" s="37"/>
+    </row>
+    <row r="73" spans="1:14">
       <c r="A73" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>69</v>
       </c>
       <c r="B73" s="11"/>
       <c r="C73" s="7"/>
-      <c r="D73" s="15"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="42"/>
-      <c r="G73" s="36"/>
-      <c r="H73" s="38"/>
-      <c r="I73" s="37"/>
-      <c r="J73" s="46"/>
-      <c r="K73" s="45"/>
-      <c r="L73" s="37"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="42"/>
+      <c r="H73" s="36"/>
+      <c r="I73" s="38"/>
+      <c r="J73" s="37"/>
+      <c r="K73" s="46"/>
+      <c r="L73" s="45"/>
       <c r="M73" s="37"/>
-    </row>
-    <row r="74" spans="1:13">
+      <c r="N73" s="37"/>
+    </row>
+    <row r="74" spans="1:14">
       <c r="A74" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A74:A107" si="1">ROW()-4</f>
         <v>70</v>
       </c>
       <c r="B74" s="11"/>
       <c r="C74" s="7"/>
-      <c r="D74" s="15"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="42"/>
-      <c r="G74" s="36"/>
-      <c r="H74" s="38"/>
-      <c r="I74" s="37"/>
-      <c r="J74" s="46"/>
-      <c r="K74" s="45"/>
-      <c r="L74" s="37"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="42"/>
+      <c r="H74" s="36"/>
+      <c r="I74" s="38"/>
+      <c r="J74" s="37"/>
+      <c r="K74" s="46"/>
+      <c r="L74" s="45"/>
       <c r="M74" s="37"/>
-    </row>
-    <row r="75" spans="1:13">
+      <c r="N74" s="37"/>
+    </row>
+    <row r="75" spans="1:14">
       <c r="A75" s="4">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
       <c r="B75" s="11"/>
       <c r="C75" s="7"/>
-      <c r="D75" s="15"/>
-      <c r="E75" s="5"/>
-      <c r="F75" s="42"/>
-      <c r="G75" s="36"/>
-      <c r="H75" s="38"/>
-      <c r="I75" s="37"/>
-      <c r="J75" s="46"/>
-      <c r="K75" s="45"/>
-      <c r="L75" s="37"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="42"/>
+      <c r="H75" s="36"/>
+      <c r="I75" s="38"/>
+      <c r="J75" s="37"/>
+      <c r="K75" s="46"/>
+      <c r="L75" s="45"/>
       <c r="M75" s="37"/>
-    </row>
-    <row r="76" spans="1:13">
+      <c r="N75" s="37"/>
+    </row>
+    <row r="76" spans="1:14">
       <c r="A76" s="4">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="B76" s="11"/>
       <c r="C76" s="7"/>
-      <c r="D76" s="15"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="42"/>
-      <c r="G76" s="36"/>
-      <c r="H76" s="38"/>
-      <c r="I76" s="37"/>
-      <c r="J76" s="46"/>
-      <c r="K76" s="45"/>
-      <c r="L76" s="37"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="42"/>
+      <c r="H76" s="36"/>
+      <c r="I76" s="38"/>
+      <c r="J76" s="37"/>
+      <c r="K76" s="46"/>
+      <c r="L76" s="45"/>
       <c r="M76" s="37"/>
-    </row>
-    <row r="77" spans="1:13">
+      <c r="N76" s="37"/>
+    </row>
+    <row r="77" spans="1:14">
       <c r="A77" s="4">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
       <c r="B77" s="11"/>
       <c r="C77" s="7"/>
-      <c r="D77" s="15"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="42"/>
-      <c r="G77" s="36"/>
-      <c r="H77" s="38"/>
-      <c r="I77" s="37"/>
-      <c r="J77" s="46"/>
-      <c r="K77" s="45"/>
-      <c r="L77" s="37"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="42"/>
+      <c r="H77" s="36"/>
+      <c r="I77" s="38"/>
+      <c r="J77" s="37"/>
+      <c r="K77" s="46"/>
+      <c r="L77" s="45"/>
       <c r="M77" s="37"/>
-    </row>
-    <row r="78" spans="1:13">
+      <c r="N77" s="37"/>
+    </row>
+    <row r="78" spans="1:14">
       <c r="A78" s="4">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
       <c r="B78" s="11"/>
       <c r="C78" s="7"/>
-      <c r="D78" s="15"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="42"/>
-      <c r="G78" s="36"/>
-      <c r="H78" s="38"/>
-      <c r="I78" s="37"/>
-      <c r="J78" s="46"/>
-      <c r="K78" s="45"/>
-      <c r="L78" s="37"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="42"/>
+      <c r="H78" s="36"/>
+      <c r="I78" s="38"/>
+      <c r="J78" s="37"/>
+      <c r="K78" s="46"/>
+      <c r="L78" s="45"/>
       <c r="M78" s="37"/>
-    </row>
-    <row r="79" spans="1:13">
+      <c r="N78" s="37"/>
+    </row>
+    <row r="79" spans="1:14">
       <c r="A79" s="4">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="B79" s="11"/>
       <c r="C79" s="7"/>
-      <c r="D79" s="15"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="42"/>
-      <c r="G79" s="36"/>
-      <c r="H79" s="38"/>
-      <c r="I79" s="37"/>
-      <c r="J79" s="46"/>
-      <c r="K79" s="45"/>
-      <c r="L79" s="37"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="42"/>
+      <c r="H79" s="36"/>
+      <c r="I79" s="38"/>
+      <c r="J79" s="37"/>
+      <c r="K79" s="46"/>
+      <c r="L79" s="45"/>
       <c r="M79" s="37"/>
-    </row>
-    <row r="80" spans="1:13">
+      <c r="N79" s="37"/>
+    </row>
+    <row r="80" spans="1:14">
       <c r="A80" s="4">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="B80" s="11"/>
       <c r="C80" s="7"/>
-      <c r="D80" s="15"/>
-      <c r="E80" s="5"/>
-      <c r="F80" s="42"/>
-      <c r="G80" s="36"/>
-      <c r="H80" s="38"/>
-      <c r="I80" s="37"/>
-      <c r="J80" s="46"/>
-      <c r="K80" s="45"/>
-      <c r="L80" s="37"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="42"/>
+      <c r="H80" s="36"/>
+      <c r="I80" s="38"/>
+      <c r="J80" s="37"/>
+      <c r="K80" s="46"/>
+      <c r="L80" s="45"/>
       <c r="M80" s="37"/>
-    </row>
-    <row r="81" spans="1:13">
+      <c r="N80" s="37"/>
+    </row>
+    <row r="81" spans="1:14">
       <c r="A81" s="4">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
       <c r="B81" s="11"/>
       <c r="C81" s="7"/>
-      <c r="D81" s="15"/>
-      <c r="E81" s="5"/>
-      <c r="F81" s="42"/>
-      <c r="G81" s="36"/>
-      <c r="H81" s="38"/>
-      <c r="I81" s="37"/>
-      <c r="J81" s="46"/>
-      <c r="K81" s="45"/>
-      <c r="L81" s="37"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="42"/>
+      <c r="H81" s="36"/>
+      <c r="I81" s="38"/>
+      <c r="J81" s="37"/>
+      <c r="K81" s="46"/>
+      <c r="L81" s="45"/>
       <c r="M81" s="37"/>
-    </row>
-    <row r="82" spans="1:13">
+      <c r="N81" s="37"/>
+    </row>
+    <row r="82" spans="1:14">
       <c r="A82" s="4">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="B82" s="11"/>
       <c r="C82" s="7"/>
-      <c r="D82" s="15"/>
-      <c r="E82" s="5"/>
-      <c r="F82" s="42"/>
-      <c r="G82" s="36"/>
-      <c r="H82" s="38"/>
-      <c r="I82" s="37"/>
-      <c r="J82" s="46"/>
-      <c r="K82" s="45"/>
-      <c r="L82" s="37"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="15"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="42"/>
+      <c r="H82" s="36"/>
+      <c r="I82" s="38"/>
+      <c r="J82" s="37"/>
+      <c r="K82" s="46"/>
+      <c r="L82" s="45"/>
       <c r="M82" s="37"/>
-    </row>
-    <row r="83" spans="1:13">
+      <c r="N82" s="37"/>
+    </row>
+    <row r="83" spans="1:14">
       <c r="A83" s="4">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
       <c r="B83" s="11"/>
       <c r="C83" s="7"/>
-      <c r="D83" s="15"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="42"/>
-      <c r="G83" s="36"/>
-      <c r="H83" s="38"/>
-      <c r="I83" s="37"/>
-      <c r="J83" s="46"/>
-      <c r="K83" s="45"/>
-      <c r="L83" s="37"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="15"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="42"/>
+      <c r="H83" s="36"/>
+      <c r="I83" s="38"/>
+      <c r="J83" s="37"/>
+      <c r="K83" s="46"/>
+      <c r="L83" s="45"/>
       <c r="M83" s="37"/>
-    </row>
-    <row r="84" spans="1:13">
+      <c r="N83" s="37"/>
+    </row>
+    <row r="84" spans="1:14">
       <c r="A84" s="4">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="B84" s="11"/>
       <c r="C84" s="7"/>
-      <c r="D84" s="15"/>
-      <c r="E84" s="5"/>
-      <c r="F84" s="42"/>
-      <c r="G84" s="36"/>
-      <c r="H84" s="38"/>
-      <c r="I84" s="37"/>
-      <c r="J84" s="46"/>
-      <c r="K84" s="45"/>
-      <c r="L84" s="37"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="42"/>
+      <c r="H84" s="36"/>
+      <c r="I84" s="38"/>
+      <c r="J84" s="37"/>
+      <c r="K84" s="46"/>
+      <c r="L84" s="45"/>
       <c r="M84" s="37"/>
-    </row>
-    <row r="85" spans="1:13">
+      <c r="N84" s="37"/>
+    </row>
+    <row r="85" spans="1:14">
       <c r="A85" s="4">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
       <c r="B85" s="11"/>
       <c r="C85" s="7"/>
-      <c r="D85" s="15"/>
-      <c r="E85" s="5"/>
-      <c r="F85" s="42"/>
-      <c r="G85" s="36"/>
-      <c r="H85" s="38"/>
-      <c r="I85" s="37"/>
-      <c r="J85" s="46"/>
-      <c r="K85" s="45"/>
-      <c r="L85" s="37"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="15"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="42"/>
+      <c r="H85" s="36"/>
+      <c r="I85" s="38"/>
+      <c r="J85" s="37"/>
+      <c r="K85" s="46"/>
+      <c r="L85" s="45"/>
       <c r="M85" s="37"/>
-    </row>
-    <row r="86" spans="1:13">
+      <c r="N85" s="37"/>
+    </row>
+    <row r="86" spans="1:14">
       <c r="A86" s="4">
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
       <c r="B86" s="11"/>
       <c r="C86" s="7"/>
-      <c r="D86" s="15"/>
-      <c r="E86" s="5"/>
-      <c r="F86" s="42"/>
-      <c r="G86" s="36"/>
-      <c r="H86" s="38"/>
-      <c r="I86" s="37"/>
-      <c r="J86" s="46"/>
-      <c r="K86" s="45"/>
-      <c r="L86" s="37"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="15"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="42"/>
+      <c r="H86" s="36"/>
+      <c r="I86" s="38"/>
+      <c r="J86" s="37"/>
+      <c r="K86" s="46"/>
+      <c r="L86" s="45"/>
       <c r="M86" s="37"/>
-    </row>
-    <row r="87" spans="1:13">
+      <c r="N86" s="37"/>
+    </row>
+    <row r="87" spans="1:14">
       <c r="A87" s="4">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
       <c r="B87" s="11"/>
       <c r="C87" s="7"/>
-      <c r="D87" s="15"/>
-      <c r="E87" s="5"/>
-      <c r="F87" s="42"/>
-      <c r="G87" s="36"/>
-      <c r="H87" s="38"/>
-      <c r="I87" s="37"/>
-      <c r="J87" s="46"/>
-      <c r="K87" s="45"/>
-      <c r="L87" s="37"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="15"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="42"/>
+      <c r="H87" s="36"/>
+      <c r="I87" s="38"/>
+      <c r="J87" s="37"/>
+      <c r="K87" s="46"/>
+      <c r="L87" s="45"/>
       <c r="M87" s="37"/>
-    </row>
-    <row r="88" spans="1:13">
+      <c r="N87" s="37"/>
+    </row>
+    <row r="88" spans="1:14">
       <c r="A88" s="4">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="B88" s="11"/>
       <c r="C88" s="7"/>
-      <c r="D88" s="15"/>
-      <c r="E88" s="5"/>
-      <c r="F88" s="42"/>
-      <c r="G88" s="36"/>
-      <c r="H88" s="38"/>
-      <c r="I88" s="37"/>
-      <c r="J88" s="46"/>
-      <c r="K88" s="45"/>
-      <c r="L88" s="37"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="15"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="42"/>
+      <c r="H88" s="36"/>
+      <c r="I88" s="38"/>
+      <c r="J88" s="37"/>
+      <c r="K88" s="46"/>
+      <c r="L88" s="45"/>
       <c r="M88" s="37"/>
-    </row>
-    <row r="89" spans="1:13">
+      <c r="N88" s="37"/>
+    </row>
+    <row r="89" spans="1:14">
       <c r="A89" s="4">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
       <c r="B89" s="11"/>
       <c r="C89" s="7"/>
-      <c r="D89" s="15"/>
-      <c r="E89" s="5"/>
-      <c r="F89" s="42"/>
-      <c r="G89" s="36"/>
-      <c r="H89" s="38"/>
-      <c r="I89" s="37"/>
-      <c r="J89" s="46"/>
-      <c r="K89" s="45"/>
-      <c r="L89" s="37"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="15"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="42"/>
+      <c r="H89" s="36"/>
+      <c r="I89" s="38"/>
+      <c r="J89" s="37"/>
+      <c r="K89" s="46"/>
+      <c r="L89" s="45"/>
       <c r="M89" s="37"/>
-    </row>
-    <row r="90" spans="1:13">
+      <c r="N89" s="37"/>
+    </row>
+    <row r="90" spans="1:14">
       <c r="A90" s="4">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
       <c r="B90" s="11"/>
       <c r="C90" s="7"/>
-      <c r="D90" s="15"/>
-      <c r="E90" s="5"/>
-      <c r="F90" s="42"/>
-      <c r="G90" s="36"/>
-      <c r="H90" s="38"/>
-      <c r="I90" s="37"/>
-      <c r="J90" s="46"/>
-      <c r="K90" s="45"/>
-      <c r="L90" s="37"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="15"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="42"/>
+      <c r="H90" s="36"/>
+      <c r="I90" s="38"/>
+      <c r="J90" s="37"/>
+      <c r="K90" s="46"/>
+      <c r="L90" s="45"/>
       <c r="M90" s="37"/>
-    </row>
-    <row r="91" spans="1:13">
+      <c r="N90" s="37"/>
+    </row>
+    <row r="91" spans="1:14">
       <c r="A91" s="4">
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
       <c r="B91" s="11"/>
       <c r="C91" s="7"/>
-      <c r="D91" s="15"/>
-      <c r="E91" s="5"/>
-      <c r="F91" s="42"/>
-      <c r="G91" s="36"/>
-      <c r="H91" s="38"/>
-      <c r="I91" s="37"/>
-      <c r="J91" s="46"/>
-      <c r="K91" s="45"/>
-      <c r="L91" s="37"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="15"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="42"/>
+      <c r="H91" s="36"/>
+      <c r="I91" s="38"/>
+      <c r="J91" s="37"/>
+      <c r="K91" s="46"/>
+      <c r="L91" s="45"/>
       <c r="M91" s="37"/>
-    </row>
-    <row r="92" spans="1:13">
+      <c r="N91" s="37"/>
+    </row>
+    <row r="92" spans="1:14">
       <c r="A92" s="4">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
       <c r="B92" s="11"/>
       <c r="C92" s="7"/>
-      <c r="D92" s="15"/>
-      <c r="E92" s="5"/>
-      <c r="F92" s="42"/>
-      <c r="G92" s="36"/>
-      <c r="H92" s="38"/>
-      <c r="I92" s="37"/>
-      <c r="J92" s="46"/>
-      <c r="K92" s="45"/>
-      <c r="L92" s="37"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="15"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="42"/>
+      <c r="H92" s="36"/>
+      <c r="I92" s="38"/>
+      <c r="J92" s="37"/>
+      <c r="K92" s="46"/>
+      <c r="L92" s="45"/>
       <c r="M92" s="37"/>
-    </row>
-    <row r="93" spans="1:13">
+      <c r="N92" s="37"/>
+    </row>
+    <row r="93" spans="1:14">
       <c r="A93" s="4">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
       <c r="B93" s="11"/>
       <c r="C93" s="7"/>
-      <c r="D93" s="15"/>
-      <c r="E93" s="5"/>
-      <c r="F93" s="42"/>
-      <c r="G93" s="36"/>
-      <c r="H93" s="38"/>
-      <c r="I93" s="37"/>
-      <c r="J93" s="46"/>
-      <c r="K93" s="45"/>
-      <c r="L93" s="37"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="15"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="42"/>
+      <c r="H93" s="36"/>
+      <c r="I93" s="38"/>
+      <c r="J93" s="37"/>
+      <c r="K93" s="46"/>
+      <c r="L93" s="45"/>
       <c r="M93" s="37"/>
-    </row>
-    <row r="94" spans="1:13">
+      <c r="N93" s="37"/>
+    </row>
+    <row r="94" spans="1:14">
       <c r="A94" s="4">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="B94" s="11"/>
       <c r="C94" s="7"/>
-      <c r="D94" s="15"/>
-      <c r="E94" s="5"/>
-      <c r="F94" s="42"/>
-      <c r="G94" s="36"/>
-      <c r="H94" s="38"/>
-      <c r="I94" s="37"/>
-      <c r="J94" s="46"/>
-      <c r="K94" s="45"/>
-      <c r="L94" s="37"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="15"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="42"/>
+      <c r="H94" s="36"/>
+      <c r="I94" s="38"/>
+      <c r="J94" s="37"/>
+      <c r="K94" s="46"/>
+      <c r="L94" s="45"/>
       <c r="M94" s="37"/>
-    </row>
-    <row r="95" spans="1:13">
+      <c r="N94" s="37"/>
+    </row>
+    <row r="95" spans="1:14">
       <c r="A95" s="4">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
       <c r="B95" s="11"/>
       <c r="C95" s="7"/>
-      <c r="D95" s="15"/>
-      <c r="E95" s="5"/>
-      <c r="F95" s="42"/>
-      <c r="G95" s="36"/>
-      <c r="H95" s="38"/>
-      <c r="I95" s="37"/>
-      <c r="J95" s="46"/>
-      <c r="K95" s="45"/>
-      <c r="L95" s="37"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="15"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="42"/>
+      <c r="H95" s="36"/>
+      <c r="I95" s="38"/>
+      <c r="J95" s="37"/>
+      <c r="K95" s="46"/>
+      <c r="L95" s="45"/>
       <c r="M95" s="37"/>
-    </row>
-    <row r="96" spans="1:13">
+      <c r="N95" s="37"/>
+    </row>
+    <row r="96" spans="1:14">
       <c r="A96" s="4">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
       <c r="B96" s="11"/>
       <c r="C96" s="7"/>
-      <c r="D96" s="15"/>
-      <c r="E96" s="5"/>
-      <c r="F96" s="42"/>
-      <c r="G96" s="36"/>
-      <c r="H96" s="38"/>
-      <c r="I96" s="37"/>
-      <c r="J96" s="46"/>
-      <c r="K96" s="45"/>
-      <c r="L96" s="37"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="15"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="42"/>
+      <c r="H96" s="36"/>
+      <c r="I96" s="38"/>
+      <c r="J96" s="37"/>
+      <c r="K96" s="46"/>
+      <c r="L96" s="45"/>
       <c r="M96" s="37"/>
-    </row>
-    <row r="97" spans="1:13">
+      <c r="N96" s="37"/>
+    </row>
+    <row r="97" spans="1:14">
       <c r="A97" s="4">
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
       <c r="B97" s="11"/>
       <c r="C97" s="7"/>
-      <c r="D97" s="15"/>
-      <c r="E97" s="5"/>
-      <c r="F97" s="42"/>
-      <c r="G97" s="36"/>
-      <c r="H97" s="38"/>
-      <c r="I97" s="37"/>
-      <c r="J97" s="46"/>
-      <c r="K97" s="45"/>
-      <c r="L97" s="37"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="15"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="42"/>
+      <c r="H97" s="36"/>
+      <c r="I97" s="38"/>
+      <c r="J97" s="37"/>
+      <c r="K97" s="46"/>
+      <c r="L97" s="45"/>
       <c r="M97" s="37"/>
-    </row>
-    <row r="98" spans="1:13">
+      <c r="N97" s="37"/>
+    </row>
+    <row r="98" spans="1:14">
       <c r="A98" s="4">
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
       <c r="B98" s="11"/>
       <c r="C98" s="7"/>
-      <c r="D98" s="15"/>
-      <c r="E98" s="5"/>
-      <c r="F98" s="42"/>
-      <c r="G98" s="36"/>
-      <c r="H98" s="38"/>
-      <c r="I98" s="37"/>
-      <c r="J98" s="46"/>
-      <c r="K98" s="45"/>
-      <c r="L98" s="37"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="15"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="42"/>
+      <c r="H98" s="36"/>
+      <c r="I98" s="38"/>
+      <c r="J98" s="37"/>
+      <c r="K98" s="46"/>
+      <c r="L98" s="45"/>
       <c r="M98" s="37"/>
-    </row>
-    <row r="99" spans="1:13">
+      <c r="N98" s="37"/>
+    </row>
+    <row r="99" spans="1:14">
       <c r="A99" s="4">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="B99" s="11"/>
       <c r="C99" s="7"/>
-      <c r="D99" s="15"/>
-      <c r="E99" s="5"/>
-      <c r="F99" s="42"/>
-      <c r="G99" s="36"/>
-      <c r="H99" s="38"/>
-      <c r="I99" s="37"/>
-      <c r="J99" s="46"/>
-      <c r="K99" s="45"/>
-      <c r="L99" s="37"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="15"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="42"/>
+      <c r="H99" s="36"/>
+      <c r="I99" s="38"/>
+      <c r="J99" s="37"/>
+      <c r="K99" s="46"/>
+      <c r="L99" s="45"/>
       <c r="M99" s="37"/>
-    </row>
-    <row r="100" spans="1:13">
+      <c r="N99" s="37"/>
+    </row>
+    <row r="100" spans="1:14">
       <c r="A100" s="4">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
       <c r="B100" s="11"/>
       <c r="C100" s="7"/>
-      <c r="D100" s="15"/>
-      <c r="E100" s="5"/>
-      <c r="F100" s="42"/>
-      <c r="G100" s="36"/>
-      <c r="H100" s="38"/>
-      <c r="I100" s="37"/>
-      <c r="J100" s="46"/>
-      <c r="K100" s="45"/>
-      <c r="L100" s="37"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="15"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="42"/>
+      <c r="H100" s="36"/>
+      <c r="I100" s="38"/>
+      <c r="J100" s="37"/>
+      <c r="K100" s="46"/>
+      <c r="L100" s="45"/>
       <c r="M100" s="37"/>
-    </row>
-    <row r="101" spans="1:13">
+      <c r="N100" s="37"/>
+    </row>
+    <row r="101" spans="1:14">
       <c r="A101" s="4">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
       <c r="B101" s="11"/>
       <c r="C101" s="7"/>
-      <c r="D101" s="15"/>
-      <c r="E101" s="5"/>
-      <c r="F101" s="42"/>
-      <c r="G101" s="36"/>
-      <c r="H101" s="38"/>
-      <c r="I101" s="37"/>
-      <c r="J101" s="46"/>
-      <c r="K101" s="45"/>
-      <c r="L101" s="37"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="15"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="42"/>
+      <c r="H101" s="36"/>
+      <c r="I101" s="38"/>
+      <c r="J101" s="37"/>
+      <c r="K101" s="46"/>
+      <c r="L101" s="45"/>
       <c r="M101" s="37"/>
-    </row>
-    <row r="102" spans="1:13">
+      <c r="N101" s="37"/>
+    </row>
+    <row r="102" spans="1:14">
       <c r="A102" s="4">
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
       <c r="B102" s="11"/>
       <c r="C102" s="7"/>
-      <c r="D102" s="15"/>
-      <c r="E102" s="5"/>
-      <c r="F102" s="42"/>
-      <c r="G102" s="36"/>
-      <c r="H102" s="38"/>
-      <c r="I102" s="37"/>
-      <c r="J102" s="46"/>
-      <c r="K102" s="45"/>
-      <c r="L102" s="37"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="15"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="42"/>
+      <c r="H102" s="36"/>
+      <c r="I102" s="38"/>
+      <c r="J102" s="37"/>
+      <c r="K102" s="46"/>
+      <c r="L102" s="45"/>
       <c r="M102" s="37"/>
-    </row>
-    <row r="103" spans="1:13">
+      <c r="N102" s="37"/>
+    </row>
+    <row r="103" spans="1:14">
       <c r="A103" s="4">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
       <c r="B103" s="11"/>
       <c r="C103" s="7"/>
-      <c r="D103" s="15"/>
-      <c r="E103" s="5"/>
-      <c r="F103" s="42"/>
-      <c r="G103" s="36"/>
-      <c r="H103" s="38"/>
-      <c r="I103" s="37"/>
-      <c r="J103" s="46"/>
-      <c r="K103" s="45"/>
-      <c r="L103" s="37"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="15"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="42"/>
+      <c r="H103" s="36"/>
+      <c r="I103" s="38"/>
+      <c r="J103" s="37"/>
+      <c r="K103" s="46"/>
+      <c r="L103" s="45"/>
       <c r="M103" s="37"/>
-    </row>
-    <row r="104" spans="1:13">
+      <c r="N103" s="37"/>
+    </row>
+    <row r="104" spans="1:14">
       <c r="A104" s="4">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="B104" s="11"/>
       <c r="C104" s="7"/>
-      <c r="D104" s="15"/>
-      <c r="E104" s="5"/>
-      <c r="F104" s="42"/>
-      <c r="G104" s="36"/>
-      <c r="H104" s="38"/>
-      <c r="I104" s="37"/>
-      <c r="J104" s="46"/>
-      <c r="K104" s="45"/>
-      <c r="L104" s="37"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="15"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="42"/>
+      <c r="H104" s="36"/>
+      <c r="I104" s="38"/>
+      <c r="J104" s="37"/>
+      <c r="K104" s="46"/>
+      <c r="L104" s="45"/>
       <c r="M104" s="37"/>
+      <c r="N104" s="37"/>
+    </row>
+    <row r="105" spans="1:14">
+      <c r="A105" s="4">
+        <f t="shared" si="1"/>
+        <v>101</v>
+      </c>
+      <c r="B105" s="11"/>
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="15"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="42"/>
+      <c r="H105" s="36"/>
+      <c r="I105" s="38"/>
+      <c r="J105" s="37"/>
+      <c r="K105" s="46"/>
+      <c r="L105" s="45"/>
+      <c r="M105" s="37"/>
+      <c r="N105" s="37"/>
+    </row>
+    <row r="106" spans="1:14">
+      <c r="A106" s="4">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
+      <c r="B106" s="11"/>
+      <c r="C106" s="7"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="15"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="42"/>
+      <c r="H106" s="36"/>
+      <c r="I106" s="38"/>
+      <c r="J106" s="37"/>
+      <c r="K106" s="46"/>
+      <c r="L106" s="45"/>
+      <c r="M106" s="37"/>
+      <c r="N106" s="37"/>
+    </row>
+    <row r="107" spans="1:14">
+      <c r="A107" s="4">
+        <f t="shared" si="1"/>
+        <v>103</v>
+      </c>
+      <c r="B107" s="11"/>
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="15"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="42"/>
+      <c r="H107" s="36"/>
+      <c r="I107" s="38"/>
+      <c r="J107" s="37"/>
+      <c r="K107" s="46"/>
+      <c r="L107" s="45"/>
+      <c r="M107" s="37"/>
+      <c r="N107" s="37"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:H4" xr:uid="{A873AFF5-382B-4441-AB55-F296E2858406}"/>
+  <autoFilter ref="A4:I4" xr:uid="{A873AFF5-382B-4441-AB55-F296E2858406}"/>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
-    <dataValidation imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:D4" xr:uid="{9DCF507F-0535-49AB-B2CD-7905C6326998}"/>
+    <dataValidation imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:E4" xr:uid="{9DCF507F-0535-49AB-B2CD-7905C6326998}"/>
   </dataValidations>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3385,7 +3704,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF7FED69-89F8-4640-A66E-20A999517425}">
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
@@ -3409,63 +3728,63 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="21" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="H1" s="25" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="J1" s="30" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="K1" s="25" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="M1" s="30" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="N1" s="25" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="23" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="E2" s="26">
         <v>0</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="H2" s="26">
         <v>0</v>
       </c>
       <c r="J2" s="31" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="K2" s="26">
         <v>0</v>
       </c>
       <c r="M2" s="31" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="N2" s="26">
         <v>0</v>
@@ -3473,31 +3792,31 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="17" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="E3" s="28">
         <v>1</v>
       </c>
       <c r="G3" s="32" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="H3" s="27">
         <v>1</v>
       </c>
       <c r="J3" s="33" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="K3" s="28">
         <v>1</v>
       </c>
       <c r="M3" s="33" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="N3" s="28">
         <v>1</v>
@@ -3505,13 +3824,13 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="17" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G4" s="32" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="H4" s="27">
         <v>2</v>
@@ -3519,13 +3838,13 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="17" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="G5" s="32" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="H5" s="27">
         <v>3</v>
@@ -3533,13 +3852,13 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="17" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="G6" s="32" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="H6" s="27">
         <v>4</v>
@@ -3547,13 +3866,13 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="17" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="G7" s="32" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="H7" s="27">
         <v>5</v>
@@ -3561,13 +3880,13 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="17" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="H8" s="27">
         <v>6</v>
@@ -3575,13 +3894,13 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="17" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="G9" s="32" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="H9" s="27">
         <v>7</v>
@@ -3589,13 +3908,13 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="17" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="H10" s="27">
         <v>8</v>
@@ -3603,13 +3922,13 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="17" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="G11" s="32" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="H11" s="27">
         <v>9</v>
@@ -3617,13 +3936,13 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="17" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="G12" s="32" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="H12" s="27">
         <v>10</v>
@@ -3631,13 +3950,13 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="17" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="G13" s="32" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="H13" s="27">
         <v>11</v>
@@ -3645,13 +3964,13 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="17" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="G14" s="32" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="H14" s="27">
         <v>12</v>
@@ -3659,13 +3978,13 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="17" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="G15" s="32" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="H15" s="27">
         <v>13</v>
@@ -3673,13 +3992,13 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="19" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="G16" s="32" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="H16" s="27">
         <v>14</v>
@@ -3687,7 +4006,7 @@
     </row>
     <row r="17" spans="7:8">
       <c r="G17" s="32" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="H17" s="27">
         <v>15</v>
@@ -3695,7 +4014,7 @@
     </row>
     <row r="18" spans="7:8">
       <c r="G18" s="32" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="H18" s="27">
         <v>16</v>
@@ -3703,7 +4022,7 @@
     </row>
     <row r="19" spans="7:8">
       <c r="G19" s="32" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="H19" s="27">
         <v>17</v>
@@ -3711,7 +4030,7 @@
     </row>
     <row r="20" spans="7:8">
       <c r="G20" s="32" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="H20" s="27">
         <v>18</v>
@@ -3719,7 +4038,7 @@
     </row>
     <row r="21" spans="7:8">
       <c r="G21" s="32" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="H21" s="27">
         <v>19</v>
@@ -3727,7 +4046,7 @@
     </row>
     <row r="22" spans="7:8">
       <c r="G22" s="32" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H22" s="27">
         <v>20</v>
@@ -3735,7 +4054,7 @@
     </row>
     <row r="23" spans="7:8">
       <c r="G23" s="32" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="H23" s="27">
         <v>21</v>
@@ -3743,7 +4062,7 @@
     </row>
     <row r="24" spans="7:8">
       <c r="G24" s="32" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="H24" s="27">
         <v>22</v>
@@ -3751,7 +4070,7 @@
     </row>
     <row r="25" spans="7:8">
       <c r="G25" s="32" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="H25" s="27">
         <v>23</v>
@@ -3759,7 +4078,7 @@
     </row>
     <row r="26" spans="7:8">
       <c r="G26" s="32" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="H26" s="27">
         <v>24</v>
@@ -3767,7 +4086,7 @@
     </row>
     <row r="27" spans="7:8">
       <c r="G27" s="32" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="H27" s="27">
         <v>25</v>
@@ -3775,7 +4094,7 @@
     </row>
     <row r="28" spans="7:8">
       <c r="G28" s="32" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="H28" s="27">
         <v>26</v>
@@ -3783,7 +4102,7 @@
     </row>
     <row r="29" spans="7:8">
       <c r="G29" s="32" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="H29" s="27">
         <v>27</v>
@@ -3791,7 +4110,7 @@
     </row>
     <row r="30" spans="7:8">
       <c r="G30" s="32" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="H30" s="27">
         <v>28</v>
@@ -3799,7 +4118,7 @@
     </row>
     <row r="31" spans="7:8">
       <c r="G31" s="32" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="H31" s="27">
         <v>29</v>
@@ -3807,7 +4126,7 @@
     </row>
     <row r="32" spans="7:8">
       <c r="G32" s="32" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="H32" s="27">
         <v>30</v>
@@ -3815,7 +4134,7 @@
     </row>
     <row r="33" spans="7:8">
       <c r="G33" s="32" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="H33" s="27">
         <v>31</v>
@@ -3823,7 +4142,7 @@
     </row>
     <row r="34" spans="7:8">
       <c r="G34" s="32" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="H34" s="27">
         <v>32</v>
@@ -3831,7 +4150,7 @@
     </row>
     <row r="35" spans="7:8">
       <c r="G35" s="32" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="H35" s="27">
         <v>33</v>
@@ -3839,7 +4158,7 @@
     </row>
     <row r="36" spans="7:8">
       <c r="G36" s="32" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="H36" s="27">
         <v>34</v>
@@ -3847,7 +4166,7 @@
     </row>
     <row r="37" spans="7:8">
       <c r="G37" s="32" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="H37" s="27">
         <v>35</v>
@@ -3855,7 +4174,7 @@
     </row>
     <row r="38" spans="7:8">
       <c r="G38" s="32" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="H38" s="27">
         <v>36</v>
@@ -3863,7 +4182,7 @@
     </row>
     <row r="39" spans="7:8">
       <c r="G39" s="32" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="H39" s="27">
         <v>37</v>
@@ -3871,7 +4190,7 @@
     </row>
     <row r="40" spans="7:8">
       <c r="G40" s="32" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="H40" s="27">
         <v>38</v>
@@ -3879,7 +4198,7 @@
     </row>
     <row r="41" spans="7:8">
       <c r="G41" s="32" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="H41" s="27">
         <v>39</v>
@@ -3887,7 +4206,7 @@
     </row>
     <row r="42" spans="7:8">
       <c r="G42" s="32" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="H42" s="27">
         <v>40</v>
@@ -3895,7 +4214,7 @@
     </row>
     <row r="43" spans="7:8">
       <c r="G43" s="32" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="H43" s="27">
         <v>41</v>
@@ -3903,7 +4222,7 @@
     </row>
     <row r="44" spans="7:8">
       <c r="G44" s="32" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="H44" s="27">
         <v>42</v>
@@ -3911,7 +4230,7 @@
     </row>
     <row r="45" spans="7:8">
       <c r="G45" s="32" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="H45" s="27">
         <v>43</v>
@@ -3919,7 +4238,7 @@
     </row>
     <row r="46" spans="7:8">
       <c r="G46" s="32" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="H46" s="27">
         <v>44</v>
@@ -3927,7 +4246,7 @@
     </row>
     <row r="47" spans="7:8">
       <c r="G47" s="32" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="H47" s="27">
         <v>45</v>
@@ -3935,7 +4254,7 @@
     </row>
     <row r="48" spans="7:8">
       <c r="G48" s="33" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="H48" s="28">
         <v>46</v>

--- a/test_case/integration-test-case.xlsx
+++ b/test_case/integration-test-case.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26419"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\plus_pm_jp\wp-content\uploads\blog\test-case-excel-integration-test\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DE8C353-F360-447B-8A35-6801F56BC7CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC964052-A76A-4E04-B969-80D831B27670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2130" yWindow="2790" windowWidth="22725" windowHeight="12345" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2130" yWindow="2790" windowWidth="22725" windowHeight="12345" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="結合テスト" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="160">
   <si>
     <t>テストID</t>
   </si>
@@ -276,7 +276,7 @@
     <t>「postal_code」＝「0123456」ではなく「123456」での登録となる</t>
   </si>
   <si>
-    <t>データ型「Varchar」を変更する（仕様書の変更）</t>
+    <t>データ型「Varchar」へ変更する（仕様書の変更）</t>
   </si>
   <si>
     <t>DBに登録するデータに対して、登録した日時が付与される</t>
@@ -1318,10 +1318,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1BE540C-CFE4-46E4-83A9-C3F67209797D}">
-  <dimension ref="A1:N107"/>
+  <dimension ref="A1:O107"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="G12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1340,16 +1340,16 @@
     <col min="13" max="14" width="29.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" s="1"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:15">
       <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="238.5">
+    <row r="5" spans="1:15" ht="238.5">
       <c r="A5" s="4">
         <f>ROW()-4</f>
         <v>1</v>
@@ -1432,7 +1432,7 @@
       <c r="M5" s="37"/>
       <c r="N5" s="37"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:15">
       <c r="A6" s="4">
         <f>ROW()-4</f>
         <v>2</v>
@@ -1471,7 +1471,7 @@
       <c r="M6" s="37"/>
       <c r="N6" s="37"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:15">
       <c r="A7" s="4">
         <f t="shared" ref="A7:A73" si="0">ROW()-4</f>
         <v>3</v>
@@ -1510,7 +1510,7 @@
       <c r="M7" s="37"/>
       <c r="N7" s="37"/>
     </row>
-    <row r="8" spans="1:14" ht="36.75">
+    <row r="8" spans="1:15" ht="36.75">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1549,7 +1549,7 @@
       <c r="M8" s="37"/>
       <c r="N8" s="37"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:15">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1588,7 +1588,7 @@
       <c r="M9" s="37"/>
       <c r="N9" s="37"/>
     </row>
-    <row r="10" spans="1:14" ht="36.75">
+    <row r="10" spans="1:15" ht="36.75">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1630,8 +1630,11 @@
       <c r="N10" s="37" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" ht="36.75">
+      <c r="O10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="36.75">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1670,7 +1673,7 @@
       <c r="M11" s="37"/>
       <c r="N11" s="37"/>
     </row>
-    <row r="12" spans="1:14" ht="55.5">
+    <row r="12" spans="1:15" ht="55.5">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1711,7 +1714,7 @@
       <c r="M12" s="37"/>
       <c r="N12" s="37"/>
     </row>
-    <row r="13" spans="1:14" ht="36.75">
+    <row r="13" spans="1:15" ht="36.75">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1750,7 +1753,7 @@
       <c r="M13" s="37"/>
       <c r="N13" s="37"/>
     </row>
-    <row r="14" spans="1:14" ht="55.5">
+    <row r="14" spans="1:15" ht="55.5">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1789,7 +1792,7 @@
       <c r="M14" s="37"/>
       <c r="N14" s="37"/>
     </row>
-    <row r="15" spans="1:14" ht="256.5">
+    <row r="15" spans="1:15" ht="256.5">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1830,7 +1833,7 @@
       <c r="M15" s="37"/>
       <c r="N15" s="37"/>
     </row>
-    <row r="16" spans="1:14" ht="256.5">
+    <row r="16" spans="1:15" ht="256.5">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1867,11 +1870,14 @@
       <c r="M16" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="N16" s="37" t="s">
+      <c r="N16" s="47" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" ht="55.5">
+      <c r="O16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="55.5">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1913,8 +1919,11 @@
       <c r="N17" s="47" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" ht="55.5">
+      <c r="O17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="55.5">
       <c r="A18" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1953,7 +1962,7 @@
       <c r="M18" s="37"/>
       <c r="N18" s="37"/>
     </row>
-    <row r="19" spans="1:14" ht="36.75">
+    <row r="19" spans="1:15" ht="36.75">
       <c r="A19" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1992,7 +2001,7 @@
       <c r="M19" s="37"/>
       <c r="N19" s="37"/>
     </row>
-    <row r="20" spans="1:14" ht="36.75">
+    <row r="20" spans="1:15" ht="36.75">
       <c r="A20" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2031,7 +2040,7 @@
       <c r="M20" s="37"/>
       <c r="N20" s="37"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:15">
       <c r="A21" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2050,7 +2059,7 @@
       <c r="M21" s="37"/>
       <c r="N21" s="37"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:15">
       <c r="A22" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2069,7 +2078,7 @@
       <c r="M22" s="37"/>
       <c r="N22" s="37"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:15">
       <c r="A23" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2088,7 +2097,7 @@
       <c r="M23" s="37"/>
       <c r="N23" s="37"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:15">
       <c r="A24" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2107,7 +2116,7 @@
       <c r="M24" s="37"/>
       <c r="N24" s="37"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:15">
       <c r="A25" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2126,7 +2135,7 @@
       <c r="M25" s="37"/>
       <c r="N25" s="37"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:15">
       <c r="A26" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2145,7 +2154,7 @@
       <c r="M26" s="37"/>
       <c r="N26" s="37"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:15">
       <c r="A27" s="4">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2164,7 +2173,7 @@
       <c r="M27" s="37"/>
       <c r="N27" s="37"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:15">
       <c r="A28" s="4">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2183,7 +2192,7 @@
       <c r="M28" s="37"/>
       <c r="N28" s="37"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:15">
       <c r="A29" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2202,7 +2211,7 @@
       <c r="M29" s="37"/>
       <c r="N29" s="37"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:15">
       <c r="A30" s="4">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2221,7 +2230,7 @@
       <c r="M30" s="37"/>
       <c r="N30" s="37"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:15">
       <c r="A31" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2240,7 +2249,7 @@
       <c r="M31" s="37"/>
       <c r="N31" s="37"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:15">
       <c r="A32" s="4">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -3704,8 +3713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF7FED69-89F8-4640-A66E-20A999517425}">
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/test_case/integration-test-case.xlsx
+++ b/test_case/integration-test-case.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26419"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26424"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\plus_pm_jp\wp-content\uploads\blog\test-case-excel-integration-test\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC964052-A76A-4E04-B969-80D831B27670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A301CDE8-FFC2-482C-A0E5-379C5D20B32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2130" yWindow="2790" windowWidth="22725" windowHeight="12345" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2130" yWindow="2790" windowWidth="22725" windowHeight="12345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="結合テスト" sheetId="3" r:id="rId1"/>
@@ -1320,8 +1320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1BE540C-CFE4-46E4-83A9-C3F67209797D}">
   <dimension ref="A1:O107"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
